--- a/upwork_test_resources.xlsx
+++ b/upwork_test_resources.xlsx
@@ -5,14 +5,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhshome/upword_tests_collecting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhnguyen/Desktop/upword_tests_collecting/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Python" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -23,9 +24,959 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
+  <si>
+    <t>What is the best way to randomly select an item from list?</t>
+  </si>
+  <si>
+    <t>foo = ['a', 'b', 'c', 'd', 'e']
+from random import choice
+print choice(foo)</t>
+  </si>
+  <si>
+    <t>foo = ['a', 'b', 'c', 'd', 'e']
+from random import randrange
+random_index = randrange(0,len(foo))
+print foo[random_index]</t>
+  </si>
+  <si>
+    <t>foo = ['a', 'b', 'c', 'd', 'e']
+import random
+print int(random.random() * len(foo))</t>
+  </si>
+  <si>
+    <t>foo = ['a', 'b', 'c', 'd', 'e']
+import random
+print foo[int(random.random() * len(foo)+1)]</t>
+  </si>
+  <si>
+    <t>Which of the following code snippets can be used to get the multiples of 2 from the list
+a = [1, 2, 3, 4, 5, 6, 7, 8, 9] ?</t>
+  </si>
+  <si>
+    <t>b = filter(lambda x: x % 2 == 0, a)</t>
+  </si>
+  <si>
+    <t>b = [x for x in a if x % 2 == 0]</t>
+  </si>
+  <si>
+    <t>def filterfunc(x):
+    return x % 2 == 0
+b = filter(filterfunc, a)</t>
+  </si>
+  <si>
+    <t>All of these</t>
+  </si>
+  <si>
+    <t>Sometimes, an object needs to be converted into its string representation. Fortunately, the object class provides functionality for this. Which of the following returns a string representation of the object 'self'?</t>
+  </si>
+  <si>
+    <t>object.__repr__(self)</t>
+  </si>
+  <si>
+    <t>object.__string__(self)</t>
+  </si>
+  <si>
+    <t>object.__conv__(self)</t>
+  </si>
+  <si>
+    <t>object.__slz__(self)</t>
+  </si>
+  <si>
+    <t>What is a metaclass in Python?</t>
+  </si>
+  <si>
+    <t>A class that is inherited from</t>
+  </si>
+  <si>
+    <t>A class that inherits from another class</t>
+  </si>
+  <si>
+    <t>Something that can be attached to any class, that gives it a constant set of attributes</t>
+  </si>
+  <si>
+    <t>Something that creates "class" objects</t>
+  </si>
+  <si>
+    <t>Which of the following statements are true?
+A. ._variable is semi-private and meant just for convention.
+B. .__variable is considered superprivate and gets name mangled to prevent accidental access.
+C. .__variable__ is typically reserved for built-in methods or variables.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A, B, and C</t>
+  </si>
+  <si>
+    <t>Various email and news clients store messages in a variety of formats, many providing hierarchical and structured folders. Which of the following provides a uniform API for reading the messages stored in all the most popular folder formats?</t>
+  </si>
+  <si>
+    <t>mailstruct</t>
+  </si>
+  <si>
+    <t>emailarch</t>
+  </si>
+  <si>
+    <t>emailfolders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mailbox </t>
+  </si>
+  <si>
+    <t>Which of the following code snippets converts the hexademical number 0x1000 to a decimal correctly?</t>
+  </si>
+  <si>
+    <t>int('1000', 16)</t>
+  </si>
+  <si>
+    <t>int(1000)</t>
+  </si>
+  <si>
+    <t>1 * (16 ** 4) + 0 + 0 + 0</t>
+  </si>
+  <si>
+    <t>int.fromhex('0x1000')</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct way to flush output of Python print?</t>
+  </si>
+  <si>
+    <t>import sys
+sys.stdout.flush()</t>
+  </si>
+  <si>
+    <t>class flushfile(file):
+  def __init__(self, f):
+    self.f = f
+  def write(self, x)
+    self.f.write(x)
+    self.f.flush()
+import sys
+sys.stdout = flushfile(sys.stdout)</t>
+  </si>
+  <si>
+    <t>import sys
+sys.stdout = os.fdopen(sys.stdout.fileno(), 'w', 0)</t>
+  </si>
+  <si>
+    <t>Running python with the -u command-line switch</t>
+  </si>
+  <si>
+    <t>While running an application, a user pressed the interrupt key (Ctrl + C). Which of the following exceptions will occur?</t>
+  </si>
+  <si>
+    <t>InterruptError</t>
+  </si>
+  <si>
+    <t>KeyboardInterrupt</t>
+  </si>
+  <si>
+    <t>KeyboardInterruptError</t>
+  </si>
+  <si>
+    <t>None of these</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct way to execute a program from inside Python without having to consider how the arguments/quotes are formatted?</t>
+  </si>
+  <si>
+    <t>import subprocess
+subprocess.call('C:\\Temp\\a b c\\Notepad.exe', 'C:\\test.txt')</t>
+  </si>
+  <si>
+    <t>os.call(['C:\\Temp\\a b c\\Notepad.exe', 'C:\\test.txt'])</t>
+  </si>
+  <si>
+    <t>import subprocess
+subprocess.call(['C:\\Temp\\a b c\\Notepad.exe', 'C:\\test.txt'])</t>
+  </si>
+  <si>
+    <t>subprocess.call(['C:\\Temp\\a b c\\Notepad.exe', 'C:\\test.txt'])</t>
+  </si>
+  <si>
+    <t>Which option will import a module which is not in PYTHONPATH or the current directory?</t>
+  </si>
+  <si>
+    <t>import &lt;modulename&gt;</t>
+  </si>
+  <si>
+    <t>Add the path in program by sys.path.insert(&lt;path&gt;)</t>
+  </si>
+  <si>
+    <t>&lt;modulename&gt; import *</t>
+  </si>
+  <si>
+    <t>Put __init__.py file in the module path and import it using the import statement</t>
+  </si>
+  <si>
+    <t>Read the following statements:
+&gt;&gt;&gt; import array
+&gt;&gt;&gt; a = array.array('c','spam and eggs')
+&gt;&gt;&gt; a[0] = 'S'
+&gt;&gt;&gt; a[-4:] = array.array('c','toast')
+&gt;&gt;&gt; print ''.join(a)
+Which of the following will be the output of the above code snippet?</t>
+  </si>
+  <si>
+    <t>Spam and toast</t>
+  </si>
+  <si>
+    <t>spam and toast</t>
+  </si>
+  <si>
+    <t>Spam and eggs</t>
+  </si>
+  <si>
+    <t>spam and eggs</t>
+  </si>
+  <si>
+    <t>spamandtoast</t>
+  </si>
+  <si>
+    <t>spamandeggs</t>
+  </si>
+  <si>
+    <t>Which of the following code samples will determine the last day of a given month?</t>
+  </si>
+  <si>
+    <t>import datetime
+datetime.date(year, month, day).replace(day=1,month=datetime.date(year, month, day).month+1)-timedelta(days=1)</t>
+  </si>
+  <si>
+    <t>import calendar
+calendar.monthrange(year, month)[1]</t>
+  </si>
+  <si>
+    <t>import datetime
+dt = datetime.date(year, month, day)
+next_month = (dt.month % 12) + 1
+end_date   = datetime.date(dt.year, next_month, 1) - datetime.timedelta(days=1)
+return end_date</t>
+  </si>
+  <si>
+    <t>import calendar
+calendar.lastday(year, month)</t>
+  </si>
+  <si>
+    <t>Object is the base class of new-style datatypes. Which of the following functions is not a member of the object class?</t>
+  </si>
+  <si>
+    <t>object.__eq__(self, other)</t>
+  </si>
+  <si>
+    <t>object.__notequal__(self, other)</t>
+  </si>
+  <si>
+    <t>Consider the function:
+def hello():
+    return "Hello, world!"
+Which of the following is the correct way to make a decorator that could be used to make hello() return "#Hello, world!#"?</t>
+  </si>
+  <si>
+    <t>def hello():
+    return "#Hello, world!#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def hashes(fn):
+    def wrapped():
+        return "#" + fn() + "#"
+    return wrapped
+@hashes
+def hello():
+    return "Hello, world!"
+    </t>
+  </si>
+  <si>
+    <t>def hashes(fn):
+    def wrapped():
+        return "#" + "#"
+    return wrapped
+@hashes
+def hello():
+    return "Hello, world!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def hashes(fn):
+    def wrapped():
+        print "#" + fn() + "#"
+    return
+@hashes
+def hello():
+    return "Hello, world!"
+    </t>
+  </si>
+  <si>
+    <t>Which of the following is the correct way to call the private method, myPrivateMethod(), in class MyClass, using dir(obj)?
+class MyClass:
+    def __myPrivateMethod(self):
+        print "Private Method"
+obj = MyClass()
+print dir(obj)</t>
+  </si>
+  <si>
+    <t>__myPrivateMethod</t>
+  </si>
+  <si>
+    <t>_MyClass__myPrivateMethod</t>
+  </si>
+  <si>
+    <t>myPrivateMethod</t>
+  </si>
+  <si>
+    <t>A private method will not be shown in the output.</t>
+  </si>
+  <si>
+    <t>Which of the following is a way to find a local computer's IP address with Python?</t>
+  </si>
+  <si>
+    <t>import socket
+socket.gethostbyname(socket.gethostname())</t>
+  </si>
+  <si>
+    <t>socket.gethostbyname(socket.gethostname())</t>
+  </si>
+  <si>
+    <t>import socket
+gethostbyname(socket.gethostname())</t>
+  </si>
+  <si>
+    <t>import ifconfig
+print (ifconfig -a)</t>
+  </si>
+  <si>
+    <t>In Python 2.x, which of the following is the way to check to make sure that the variable 'x' is not a string?</t>
+  </si>
+  <si>
+    <t>assert isinstance(x, basestring)</t>
+  </si>
+  <si>
+    <t>assert not isinstance(x, basestring)</t>
+  </si>
+  <si>
+    <t>assert not instance(x, basestring)</t>
+  </si>
+  <si>
+    <t>assert not x.isinstance(basestring)</t>
+  </si>
+  <si>
+    <t>Which Python module can be used for copying files?</t>
+  </si>
+  <si>
+    <t>util</t>
+  </si>
+  <si>
+    <t>shutil</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>filecopy</t>
+  </si>
+  <si>
+    <t>Which of the following exceptions occurs while importing a module?</t>
+  </si>
+  <si>
+    <t>ModuleError</t>
+  </si>
+  <si>
+    <t>ImportError</t>
+  </si>
+  <si>
+    <t>ImportModuleError</t>
+  </si>
+  <si>
+    <t>ReferenceError</t>
+  </si>
+  <si>
+    <t>Which of the following modules lets you check whether two files are identical, and whether two directories contain some identical files?</t>
+  </si>
+  <si>
+    <t>dircomp</t>
+  </si>
+  <si>
+    <t>filecompare</t>
+  </si>
+  <si>
+    <t>filecmp</t>
+  </si>
+  <si>
+    <t>structcomp</t>
+  </si>
+  <si>
+    <t>Which of the following will determine the number of CPUs available in the operating environment?</t>
+  </si>
+  <si>
+    <t>import os
+os..cpu_count()</t>
+  </si>
+  <si>
+    <t>import sys
+sys..cpu_count()</t>
+  </si>
+  <si>
+    <t>import psutil
+sutil.NUM_CPUS</t>
+  </si>
+  <si>
+    <t>import multiprocessing
+multiprocessing.cpu_count()</t>
+  </si>
+  <si>
+    <t>What is the most flexible way to call the external command "ls -l" in Python?</t>
+  </si>
+  <si>
+    <t>from subprocess import call
+call(["ls", "-l"])</t>
+  </si>
+  <si>
+    <t>from subprocess import call
+call("ls -l")</t>
+  </si>
+  <si>
+    <t>os.system("ls -l")</t>
+  </si>
+  <si>
+    <t>os.system(["ls"], ["-l"])</t>
+  </si>
+  <si>
+    <t>Read the following statements:
+&gt;&gt;&gt; word = 'Help' + 'A'
+&gt;&gt;&gt; word[2:]
+Which of the following will be the output of the above code?</t>
+  </si>
+  <si>
+    <t>lpA</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>pA</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct prototype of the string.find() function?</t>
+  </si>
+  <si>
+    <t>string.find(s, sub ,start ,end)</t>
+  </si>
+  <si>
+    <t>string.find(s, sub ,start [,end])</t>
+  </si>
+  <si>
+    <t>string.find(s, sub [,start [,end]])</t>
+  </si>
+  <si>
+    <t>string.find(s, sub [,start] ,end)</t>
+  </si>
+  <si>
+    <t>How can a null object be declared in Python?</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Python 2.3+ includes a standard module that implements a set datatype. Which of the following statements is true about the set datatype?</t>
+  </si>
+  <si>
+    <t>A set is an unordered collection of hashable objects.</t>
+  </si>
+  <si>
+    <t>No object can occur in a set more than once.</t>
+  </si>
+  <si>
+    <t>A set resembles a dict that has only keys but no values.</t>
+  </si>
+  <si>
+    <t>Sets utilize bitwise and Boolean syntax to perform basic set-theoretic operations.</t>
+  </si>
+  <si>
+    <t>All of these.</t>
+  </si>
+  <si>
+    <t>Which of the following statements imports every name in a module namespace into the current namespace?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from modname import All</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from modname import *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from modname import ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from modname import All as *</t>
+  </si>
+  <si>
+    <t>What is the result of the following code:
+&gt;&gt;&gt; import itertools
+&gt;&gt;&gt; x = itertools.count(0)
+&gt;&gt;&gt; x.__class__.__name__</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>'count'</t>
+  </si>
+  <si>
+    <t>'Object'</t>
+  </si>
+  <si>
+    <t>'None'</t>
+  </si>
+  <si>
+    <t>What is the correct way to delete a directory that is not empty using Python?</t>
+  </si>
+  <si>
+    <t>os.remove('/directory')</t>
+  </si>
+  <si>
+    <t>os.rmtree('/directory')</t>
+  </si>
+  <si>
+    <t>shutil.rmtree('/directory')</t>
+  </si>
+  <si>
+    <t>import shutil
+shutil.rmtree('/directory')</t>
+  </si>
+  <si>
+    <t>Which of the following code samples will read arguments if the script is run from the command line?</t>
+  </si>
+  <si>
+    <t>import argparse
+parser = argparse.ArgumentParser()
+print parser.arguments()</t>
+  </si>
+  <si>
+    <t>from optparse import OptionParser
+parser = OptionParser()
+print parser.arguments()</t>
+  </si>
+  <si>
+    <t>import sys
+print sys.argv</t>
+  </si>
+  <si>
+    <t>import os
+print os.argv</t>
+  </si>
+  <si>
+    <t>Read the following statements:
+&gt;&gt;&gt; import string
+&gt;&gt;&gt; s = 'mary\011had a little lamb'
+&gt;&gt;&gt; print s
+Which of the following will be the output of the above code snippet?</t>
+  </si>
+  <si>
+    <t>mary had a little lamb</t>
+  </si>
+  <si>
+    <t>mary\011 had a little lamb</t>
+  </si>
+  <si>
+    <t>mary    had a little lamb</t>
+  </si>
+  <si>
+    <t>mary\011had a little lamb</t>
+  </si>
+  <si>
+    <t>In Python, what is the default maximum level of recursion?</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>There is no default maximum level</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct way to check to see if the variable theVar is an integer?</t>
+  </si>
+  <si>
+    <t>isinstance(theVar, int)</t>
+  </si>
+  <si>
+    <t>theVar.isinstance(int)</t>
+  </si>
+  <si>
+    <t>int.isinstance(theVar)</t>
+  </si>
+  <si>
+    <t>is(theVar, int)</t>
+  </si>
+  <si>
+    <t>Which of the following statements can be used to remove an item from a list by giving the index?</t>
+  </si>
+  <si>
+    <t>remove listname[index]</t>
+  </si>
+  <si>
+    <t>del listname[index]</t>
+  </si>
+  <si>
+    <t>kill listname[index]</t>
+  </si>
+  <si>
+    <t>Which of the following functions can change the maximum level of recursion?</t>
+  </si>
+  <si>
+    <t>setmaxrecursion function in the sys module</t>
+  </si>
+  <si>
+    <t>setrecursionlimit function in the sys module</t>
+  </si>
+  <si>
+    <t>setmaximumrecursion function in the sys module</t>
+  </si>
+  <si>
+    <t>Which of the following modules keep prior directory listings in the memory to avoid the need for a new call to the file system?</t>
+  </si>
+  <si>
+    <t>sys</t>
+  </si>
+  <si>
+    <t>FileSys</t>
+  </si>
+  <si>
+    <t>dirsys</t>
+  </si>
+  <si>
+    <t>dircache</t>
+  </si>
+  <si>
+    <t>What is the output of the following code?
+def foo(param1, *param2):
+    print param1
+    print param2
+def bar(param1, **param2):
+    print param1
+    print param2
+foo(1,2,3,4,5)
+bar(1,a=2,b=3)</t>
+  </si>
+  <si>
+    <t>TypeError: foo() got multiple values for keyword argument 'param1'</t>
+  </si>
+  <si>
+    <t>1
+(2, 3, 4, 5)
+1
+(2, 3)</t>
+  </si>
+  <si>
+    <t>1
+(2, 3, 4, 5)
+1
+{'a': 2, 'b': 3}</t>
+  </si>
+  <si>
+    <t>1
+{2, 3, 4, 5}
+1
+('a': 2, 'b': 3)</t>
+  </si>
+  <si>
+    <t>Consider the following code:
+myString = '   Hello!   '
+Which of the following choices will remove the spaces at the beginning and end of myString?</t>
+  </si>
+  <si>
+    <t>myString.strip()</t>
+  </si>
+  <si>
+    <t>myString.trim()</t>
+  </si>
+  <si>
+    <t>myString.replace(' ','')</t>
+  </si>
+  <si>
+    <t>myString.lstrip()</t>
+  </si>
+  <si>
+    <t>What is the best way to check if a list is empty?
+x = []</t>
+  </si>
+  <si>
+    <t>if not len(x):</t>
+  </si>
+  <si>
+    <t>if not x:</t>
+  </si>
+  <si>
+    <t>if x == []:</t>
+  </si>
+  <si>
+    <t>if len(x) == 0:</t>
+  </si>
+  <si>
+    <t>Which of the following variables store parameters passed from outside?</t>
+  </si>
+  <si>
+    <t>sys.param</t>
+  </si>
+  <si>
+    <t>sys.arg</t>
+  </si>
+  <si>
+    <t>sys.argv</t>
+  </si>
+  <si>
+    <t>sys.prm</t>
+  </si>
+  <si>
+    <t>Inheriting from a base class enables a custom class to use a few new capabilities, such as slots and properties. Which of the following is the base class of new-style datatypes?</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>What would the 'sorted_tel' be in the following code:
+tel = {'jack': 4098, 'sape': 5139, 'bill': 3678, 'mike': 2122}
+sorted_tel = sorted(tel.items(), key=lambda x: x[1])</t>
+  </si>
+  <si>
+    <t>A dictionary sorted by the second element.</t>
+  </si>
+  <si>
+    <t>A list of Tuples sorted by the second element.</t>
+  </si>
+  <si>
+    <t>A list of dictionaries sorted by the first element.</t>
+  </si>
+  <si>
+    <t>A dictionary sorted by the first element.</t>
+  </si>
+  <si>
+    <t>A list of Tuples sorted by the first element.</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct prototype for the 'open' function of the file class in python 2.2+?</t>
+  </si>
+  <si>
+    <t>open(fname [,mode [,buffering]])</t>
+  </si>
+  <si>
+    <t>open(fname [,buffering [,mode]])</t>
+  </si>
+  <si>
+    <t>open(fname [,mode])</t>
+  </si>
+  <si>
+    <t>open(fname,mode,buffering)</t>
+  </si>
+  <si>
+    <t>open(fname,buffering,mode)</t>
+  </si>
+  <si>
+    <t>What is the difference between the two methods, "foo is None", and "foo == None", for the purposes of determining if the type of an object is None?</t>
+  </si>
+  <si>
+    <t>"is" always returns True if it compares the same object instance whereas the value returned by "==" is determined by the __eq__() method.</t>
+  </si>
+  <si>
+    <t>"==" always returns True if it compares the same object instance whereas the value returned by "is" is determined by the __eq__() method.</t>
+  </si>
+  <si>
+    <t>There is no difference between the two, but "==" is preferred by convention.</t>
+  </si>
+  <si>
+    <t>There is no difference between the two, but "is" is preferred by convention.</t>
+  </si>
+  <si>
+    <t>Which function could be used to list every file and folder in the current directory?</t>
+  </si>
+  <si>
+    <t>os.dirnames('.')</t>
+  </si>
+  <si>
+    <t>os.listdir('.')</t>
+  </si>
+  <si>
+    <t>os.listdir('/')</t>
+  </si>
+  <si>
+    <t>os.ls()</t>
+  </si>
+  <si>
+    <t>What will be the output of the following statements:
+&gt;&gt;&gt; letlist = ('a','B','Z','r','w')
+&gt;&gt;&gt; for c in letlist: print(c)</t>
+  </si>
+  <si>
+    <t>aBZrw</t>
+  </si>
+  <si>
+    <t>a B Z r w</t>
+  </si>
+  <si>
+    <t>a
+B
+Z
+r
+w</t>
+  </si>
+  <si>
+    <t>Read the following statements in which nested filters are used:
+shortline = lambda line: len(line) &lt; 25
+short_regvals = filter(shortline, (isRegDBVal, lines))
+Which of the following errors is present in the above code?</t>
+  </si>
+  <si>
+    <t>Nested filters are not allowed.</t>
+  </si>
+  <si>
+    <t>The filter function is missing for (isRegDBval, lines).</t>
+  </si>
+  <si>
+    <t>The function shortline should be in a bracket-like filter(shortline), (isregDBval), lines).</t>
+  </si>
+  <si>
+    <t>None of these.</t>
+  </si>
+  <si>
+    <t>Which of the following statements copy the contents of a list and not just a reference to the list?</t>
+  </si>
+  <si>
+    <t>newlist = oldlist</t>
+  </si>
+  <si>
+    <t>newlist = oldlist[:]</t>
+  </si>
+  <si>
+    <t>newlist = oldlist(dummy)</t>
+  </si>
+  <si>
+    <t>Which of the following options is correct regarding the difference between __repr__ and __str__?</t>
+  </si>
+  <si>
+    <t>The goal of __repr__ is to be unambigous and __str__ is to be readable.</t>
+  </si>
+  <si>
+    <t>__repr__ and __str have no difference and are same everytime.</t>
+  </si>
+  <si>
+    <t>__repr__ prints the data the object holds and __str__ prints the name of object.</t>
+  </si>
+  <si>
+    <t>One common way to test a capability in Python is to try to do something, and catch any exceptions that occur.
+Which of the following is the correct mechanism of trapping an error?</t>
+  </si>
+  <si>
+    <t>try:
+        code to be verified will come here
+exception &lt;except&gt;:</t>
+  </si>
+  <si>
+    <t>try:
+        code to be verified will come here
+except &lt;exception&gt;:</t>
+  </si>
+  <si>
+    <t>try:
+        code to be verified will come here
+exception:</t>
+  </si>
+  <si>
+    <t>try:
+        code to be verified will come here
+exception &lt;exception&gt;:</t>
+  </si>
+  <si>
+    <t>Which of the following snippets will return the list of all occurances of 'b' in 
+a = ['a','b','c','b'] ?</t>
+  </si>
+  <si>
+    <t>b = [item for item in a if a == 'b'][0]</t>
+  </si>
+  <si>
+    <t>b = [item for item in a if a[] == 'b']</t>
+  </si>
+  <si>
+    <t>b = [item for item in a if 'b' in a]</t>
+  </si>
+  <si>
+    <t>b = [item for item in a if item == 'b']</t>
+  </si>
+  <si>
+    <t>It is possible to use encoding other than ASCII in Python source files. The best way to do it is to put one more special comment line right after the #! line to define the source file encoding. Which of the following is the correct statement to define encoding?</t>
+  </si>
+  <si>
+    <t>coding: iso-8859-15</t>
+  </si>
+  <si>
+    <t># -*- iso-8859-15 -*-</t>
+  </si>
+  <si>
+    <t># -*- coding: iso-8859-15 -*-</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>Answer 5</t>
+  </si>
+  <si>
+    <t>Answer 6</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -47,6 +998,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -65,10 +1039,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -78,8 +1054,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -357,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,4 +1465,991 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="95" style="4" customWidth="1"/>
+    <col min="2" max="2" width="111" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="154.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="26.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>233</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" t="s">
+        <v>261</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/upwork_test_resources.xlsx
+++ b/upwork_test_resources.xlsx
@@ -1,31 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhnguyen/Desktop/upword_tests_collecting/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="28800" windowHeight="17620" activeTab="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Python" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="1"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="Python" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Java Script" sheetId="3" r:id="rId3"/>
+    <s:sheet name="Java Test v3" sheetId="4" r:id="rId4"/>
+    <s:sheet name="Enterprise Java Beans (EJB) 2.0" sheetId="5" r:id="rId5"/>
+    <s:sheet name="Software Testing Test" sheetId="6" r:id="rId6"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1241">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>Answer 5</t>
+  </si>
+  <si>
+    <t>Answer 6</t>
+  </si>
+  <si>
+    <t>Correct Answer</t>
+  </si>
   <si>
     <t>What is the best way to randomly select an item from list?</t>
   </si>
@@ -948,83 +966,3893 @@
     <t># -*- coding: iso-8859-15 -*-</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answer 1</t>
-  </si>
-  <si>
-    <t>Answer 2</t>
-  </si>
-  <si>
-    <t>Answer 3</t>
-  </si>
-  <si>
-    <t>Answer 4</t>
-  </si>
-  <si>
-    <t>Answer 5</t>
-  </si>
-  <si>
-    <t>Answer 6</t>
-  </si>
-  <si>
-    <t>Correct Answer</t>
+    <t>Given a TextArea element with ID "text", which will disable the resizable property of the TextArea?</t>
+  </si>
+  <si>
+    <t>document.getElementById("text").style.resize = "none";</t>
+  </si>
+  <si>
+    <t>document.getElementById("text").style.resize = "disabled";</t>
+  </si>
+  <si>
+    <t>document.getElementById("text").resize = "none";</t>
+  </si>
+  <si>
+    <t>document.getElementById("text").resize = "disabled";</t>
+  </si>
+  <si>
+    <t>What does the + sign in front of a function name mean in JavaScript?</t>
+  </si>
+  <si>
+    <t>It forces the parser to treat the + sign  as a part of an expression.</t>
+  </si>
+  <si>
+    <t>The + sign is used as a cast operator.</t>
+  </si>
+  <si>
+    <t>It is used to denote a type of object in JavaScript.</t>
+  </si>
+  <si>
+    <t>Which of the following is the best way of retrieving DOM elements using CSS class names?</t>
+  </si>
+  <si>
+    <t>var className = 'someClassName';
+var retrievedElements= [];
+var myclass = new RegExp('\\b'+className+'\\b');
+var elem = this.getElementsByTagName('*');
+for (var i = 0; i &lt; elem.length; i++) {
+  var classes = elem[i].className;
+  if (myclass.test(classes)) retrievedElements.push(elem[i]);
+}</t>
+  </si>
+  <si>
+    <t>var className = 'someClassName';
+var retrievedElements= document.getElementsByClassName(className);</t>
+  </si>
+  <si>
+    <t>var className = 'someClassName';
+var retrievedElements= [];
+var elem = this.getElementsByTagName('*');
+for (var i = 0; i &lt; elem.length; i++) {
+  var classes = elem[i].className;
+  if (className.indexOf(classes) == 0) retrievedElements.push(elem[i]);
+}</t>
+  </si>
+  <si>
+    <t>It is not possible to retrieve DOM elements using CSS class names.</t>
+  </si>
+  <si>
+    <t>Which of the following statements regarding this String prototype is correct?
+String.prototype.doSomething = function(suffix) {
+    return this.indexOf(suffix, this.length - suffix.length) !== -1;
+};</t>
+  </si>
+  <si>
+    <t>This method determines whether or not a string ends with another string.</t>
+  </si>
+  <si>
+    <t>This method determines whether or not a string begins with another string.</t>
+  </si>
+  <si>
+    <t>This method returns the position of the last occurrence of a specified value in a string.</t>
+  </si>
+  <si>
+    <t>This method returns the position of the first occurrence of a specified value in a string.</t>
+  </si>
+  <si>
+    <t>How can a JavaScript object be printed?</t>
+  </si>
+  <si>
+    <t>console.log(obj)</t>
+  </si>
+  <si>
+    <t>console.print(obj)</t>
+  </si>
+  <si>
+    <t>console.echo(obj);</t>
+  </si>
+  <si>
+    <t>The following codes are for comparing equality operators "==" and  "===" in JavaScript.
+Which of the following are the correct results?</t>
+  </si>
+  <si>
+    <t>var a = "12" + "3";
+var b = "123";
+return (a === b);
+result: true</t>
+  </si>
+  <si>
+    <t>var a = [1,2,3];
+var b = [1,2,3];
+return (a == b);
+result: false</t>
+  </si>
+  <si>
+    <t>var a = { x: 1, y: 2 };
+var b = { x: 1, y: 2 };
+return (a === b);
+result: true</t>
+  </si>
+  <si>
+    <t>var a = new String("123");
+var b = "123";
+return (a === b);
+result: true</t>
+  </si>
+  <si>
+    <t>var a = { x: 1, y: 2 };
+var b = { x: 1, y: 2 };
+return (a == b);
+result: true</t>
+  </si>
+  <si>
+    <t>Select the following function that shuffles an array?</t>
+  </si>
+  <si>
+    <t>function shuffle(array) {
+    var tmp, current, top = array.length;
+    if(top) while(--top) {
+     current = Math.floor(Math.random() * (top + 1));
+     tmp = array[current];
+     array[current] = array[top];
+     array[top] = tmp;
+    }
+    return array;
+}</t>
+  </si>
+  <si>
+    <t>function shuffle(array) {
+  return array.sort(function(a,b) {
+    return (a-b);
+  });
+}</t>
+  </si>
+  <si>
+    <t>function shuffle(array) {
+ var results = new Array();
+ var sorted_arr = array.sort();
+ for (var i = 0; i &lt; array.length - 1; i++) {
+    if (sorted_arr[i + 1] == sorted_arr[i]) {
+        results.push(sorted_arr[i]);
+    }
+ }
+ return results;
+}</t>
+  </si>
+  <si>
+    <t>function shuffle(array) {
+  for (var tmp, cur, top=array.length; top--;){
+    cur = (Math.random() * (top + 1)) &lt;&lt; 0;
+    tmp = array[cur]; array[cur] = array[top]; array[top] = tmp;
+  }
+  return array.sort();
+}</t>
+  </si>
+  <si>
+    <t>State whether True or False:-
+"Event bubbling causes all events in the child nodes to be automatically passed to its parent nodes"</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>What is the correct format for adding comments to a JSON file?</t>
+  </si>
+  <si>
+    <t>/* comment */</t>
+  </si>
+  <si>
+    <t>&lt;!-- comment --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;? comment ?&gt;</t>
+  </si>
+  <si>
+    <t>Comments aren't allowed inside JSON files.</t>
+  </si>
+  <si>
+    <t>Which of the following code snippets changes an image on the page?</t>
+  </si>
+  <si>
+    <t>var img = document.getElementById("imageId");
+img.src = "newImage.gif";</t>
+  </si>
+  <si>
+    <t>var img = document.getElementById("imageId");
+img.style.src = "newImage.gif";</t>
+  </si>
+  <si>
+    <t>var img = document.getElementById("imageId");
+img.src.value = "newImage.gif";</t>
+  </si>
+  <si>
+    <t>var img = document.getElementById("imageId");
+img = "newImage.gif";</t>
+  </si>
+  <si>
+    <t>Which of the following code snippets renders a button invisible?</t>
+  </si>
+  <si>
+    <t>var button = document.getElementById('buttonId');
+button.style.display='none'</t>
+  </si>
+  <si>
+    <t>var button = document.getElementById('buttonId');
+button.style.display='block'</t>
+  </si>
+  <si>
+    <t>var button = document.getElementById('btn');
+button.style.visibility='false';</t>
+  </si>
+  <si>
+    <t>var button = document.getElementById('btn');
+button.style.visibility='disabled';</t>
+  </si>
+  <si>
+    <t>Which of the following will implement a singleton pattern in JavaScript?</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+var anObject = {
+  method1: function () {
+    // ...
+  },
+  method2: function () {
+    // ...
+  }
+};
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+function method1(){
+    // ...
+}
+function method2(){
+    // ...
+}
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+var method1 = function(){
+    // ...
+}
+var method2 = function(){
+    // ...
+}
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+var method1; 
+var method2;
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following will detect which DOM element has the focus?</t>
+  </si>
+  <si>
+    <t>document.activeElement</t>
+  </si>
+  <si>
+    <t>document.ready</t>
+  </si>
+  <si>
+    <t>document.referrer</t>
+  </si>
+  <si>
+    <t>document.getelementbyid</t>
+  </si>
+  <si>
+    <t>Which of following uses the "with" statement in JavaScript correctly?</t>
+  </si>
+  <si>
+    <t>with (document.getElementById("blah").style) {
+    background = "black";
+    color = "blue";
+    border = "1px solid green";
+}</t>
+  </si>
+  <si>
+    <t>with document.getElementById("blah").style
+    background = "black";
+    color = "blue";
+    border = "1px solid green";
+End With</t>
+  </si>
+  <si>
+    <t>With document.getElementByName("blah").style
+    background = "black";
+    color = "blue";
+    border = "1px solid green";
+End With</t>
+  </si>
+  <si>
+    <t>with (document.getElementById("blah").style) {
+    .background = "black";
+    .color = "blue";
+    .border = "1px solid green";
+}</t>
+  </si>
+  <si>
+    <t>What does a "for...in" loop do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It iterates over the enumerable properties of an object, in arbitrary order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It iterates over the enumerable properties of an string, in arbitrary order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It iterates over the enumerable properties of an intenger, in arbitrary order. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It iterates over the enumerable properties of an function, in arbitrary order. </t>
+  </si>
+  <si>
+    <t>What will be the output of the following code?
+var foo = 10 &lt;&lt; 1;</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Which of the following will detect if the browser supports a certain CSS property?</t>
+  </si>
+  <si>
+    <t>typeof document.body.style.borderRadius == 'string'</t>
+  </si>
+  <si>
+    <t>typeof document.body.style.borderRadius == 'undefined'</t>
+  </si>
+  <si>
+    <t>typeof document.body.style.borderRadius == true</t>
+  </si>
+  <si>
+    <t>It is impossible.</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct?</t>
+  </si>
+  <si>
+    <t>There is no undefined property in JavaScript.</t>
+  </si>
+  <si>
+    <t>Undefined object properties can be checked using the following code:
+if (typeof something == null) 
+   alert("something is undefined");</t>
+  </si>
+  <si>
+    <t>It is not possible to check for undefined object properties in JavaScript.</t>
+  </si>
+  <si>
+    <t>Undefined object properties can be checked using the following code:
+if (typeof something === "undefined") 
+   alert("something is undefined");</t>
+  </si>
+  <si>
+    <t>How can it be determined if JavaScript is disabled in the user's browser?</t>
+  </si>
+  <si>
+    <t>It is browser-dependent.</t>
+  </si>
+  <si>
+    <t>There is no way to detect if JavaScript is disabled.</t>
+  </si>
+  <si>
+    <t>Use the HTML &lt;noscript&gt; tag to display different content if JavaScript is disabled.</t>
+  </si>
+  <si>
+    <t>What is the output of the following code?
+var a = 5;
+var b = 1;
+if(!!"false") {
+ a = a + 5; 
+ b = 3;
+};
+if(!!0) {
+ a = a + 5; 
+ b = b + 2;
+};
+alert(a+b);</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>What will be the output of this code?
+parseInt(1 / 0, 19);</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Which of the following descriptions best describes the code below?
+&lt;script&gt;
+var variable1 = { fastFood: "spaghetti", length: 10 };
+Object.freeze(variable1);
+variable1.price = 50;
+delete variable1.length;
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Object is frozen, a property named "price" is added in the variable1 object, a property named "length" is deleted from this object. At the end of the code, the object "variable1" contains 2 properties.</t>
+  </si>
+  <si>
+    <t>Object is frozen, a property named "price" is not added in the variable1 object, a property named "length" is deleted from this object. At the end of the code, object "variable1" contains 1 properties.</t>
+  </si>
+  <si>
+    <t>Object is frozen, a property named "price" is added in the variable1 object, a property named "length" is not deleted from this object. At the end of the code, object "variable1" contains 1 properties.</t>
+  </si>
+  <si>
+    <t>Object is frozen, a property named "price" is not added in the variable1 object, a property named "length" is not deleted from this object. At the end of the code, object "variable1" contains 2 properties.</t>
+  </si>
+  <si>
+    <t>Which of the following statements about the 'new' keyword is incorrect?</t>
+  </si>
+  <si>
+    <t>It creates a new object.</t>
+  </si>
+  <si>
+    <t>It sets the constructor property of the object to 'Object'.</t>
+  </si>
+  <si>
+    <t>It prevents any user-defined function from being called as a constructor.</t>
+  </si>
+  <si>
+    <t>It executes a constructor function.</t>
+  </si>
+  <si>
+    <t>How can you concatenate the following strings in javascript?
+var foo = "Lorem ";
+var bar = "Ipsum";</t>
+  </si>
+  <si>
+    <t>foo + bar;</t>
+  </si>
+  <si>
+    <t>foo.bar;</t>
+  </si>
+  <si>
+    <t>concatenate(foo,bar);</t>
+  </si>
+  <si>
+    <t>foo.concatenate(bar);</t>
+  </si>
+  <si>
+    <t>What is the purpose of while(1) in the following JSON response?
+while(1);[['u',[['smsSentFlag','false'],['hideInvitations','false'],['remindOnRespondedEventsOnly','true'],['hideInvitations_remindOnRespondedEventsOnly','false_true'],['Calendar ID stripped for privacy','false'],['smsVerifiedFlag','true']]]]</t>
+  </si>
+  <si>
+    <t>It's invalid JSON code.</t>
+  </si>
+  <si>
+    <t>It makes it difficult for a third-party to insert the JSON response into an HTML document with a &lt;script&gt; tag.</t>
+  </si>
+  <si>
+    <t>It iterates the JSON response.</t>
+  </si>
+  <si>
+    <t>It prevents the JSON response from getting executed.</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct method to use, in order to know the name of both the Object and Object Class in JavaScript?</t>
+  </si>
+  <si>
+    <t>toSource()</t>
+  </si>
+  <si>
+    <t>valueOf()</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>getName()</t>
+  </si>
+  <si>
+    <t>Which of the following 'if' statements is correctly used to get the size of both 'variable1' and 'variable2' objects?
+var variable1 = {'name':'theName', 'address':'theAddress','age': '18'}
+var variable2 = ['theName','theAddress','18'];
+variable1["name"] = "theName2";
+variable1["name"] = "theName3";
+variable1["name2"] = "theName4";
+variable1["name2"] = "theName5";
+Object.size = function(importer) {
+    var exporter = 0, key;
+    for (key in importer) {
+        if (importer.hasOwnProperty(key)) exporter++;
+    }
+    return exporter;
+};</t>
+  </si>
+  <si>
+    <t>if(typeof(variable1)=='object' &amp;&amp;  typeof(variable2)=='array'){ 
+Object.size(variable1);
+variable2.length;
+}</t>
+  </si>
+  <si>
+    <t>if(typeof(variable1)=='array' &amp;&amp;  typeof(variable2)=='object'){ 
+Object.size(variable1);
+variable2.length;
+}</t>
+  </si>
+  <si>
+    <t>if(typeof(variable1) &gt; typeof(variable2)){ 
+Object.size(variable1);
+variable2.length;
+}</t>
+  </si>
+  <si>
+    <t>if(typeof(variable1) == typeof(variable2)){ 
+Object.size(variable1);
+variable2.length;
+}</t>
+  </si>
+  <si>
+    <t>What will be the final output ?
+var x=3;
+x=x&lt;&lt;3;</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Which of the following statements are true regarding the "this" keyword in JavaScript?</t>
+  </si>
+  <si>
+    <t>The value of "this" can be set by assignment during execution, and it will be the same each time the function is called.</t>
+  </si>
+  <si>
+    <t>Inside a function, the value of "this" depends on how many times the function is called.</t>
+  </si>
+  <si>
+    <t>Inside a function, the value of "this" depends on how the function is called (as a simple call, an object method, a constructor, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In strict mode, the value of "this" may change from whatever it is set to, when entering the execution context. </t>
+  </si>
+  <si>
+    <t>Which of the following will convert a string with comma-separated values into an array?</t>
+  </si>
+  <si>
+    <t>var array = string.split(',');</t>
+  </si>
+  <si>
+    <t>var array = string.split(';');</t>
+  </si>
+  <si>
+    <t>var array = string.slice(',');</t>
+  </si>
+  <si>
+    <t>var array = string.toArray();</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct way to stop setInterval() from calling a function in JavaScript?</t>
+  </si>
+  <si>
+    <t>setInterval() returns an interval ID, which can pass to clearInterval() to stop it from calling its designated function.</t>
+  </si>
+  <si>
+    <t>Cannot stop the setInterval() from calling its designated function.</t>
+  </si>
+  <si>
+    <t>Stopping setInterval() is browser-dependent; some browsers support stopping setInterval(), others don't.</t>
+  </si>
+  <si>
+    <t>When toggling a variable, its cycle must be 0 and 1. When the variable's active value is 0, the next value should be 1, and when the variable's active value is 1, the next value should be 0.
+Considering the scenario above, which of the following is correct?</t>
+  </si>
+  <si>
+    <t>q = (q == 1 ? 1 : 0);</t>
+  </si>
+  <si>
+    <t>q = 1 - q;</t>
+  </si>
+  <si>
+    <t>q ^= 0;</t>
+  </si>
+  <si>
+    <t>q = inv(0);</t>
+  </si>
+  <si>
+    <t>What is the cleanest, most effective way to validate decimal numbers in JavaScript?</t>
+  </si>
+  <si>
+    <t>IsNumeric()</t>
+  </si>
+  <si>
+    <t>isNaN()</t>
+  </si>
+  <si>
+    <t>valid()</t>
+  </si>
+  <si>
+    <t>isDecimal()</t>
+  </si>
+  <si>
+    <t>Which of the following statements are correct about null and undefined?</t>
+  </si>
+  <si>
+    <t>Undefined indicates that a variable has not been assigned a value. Null can be assigned to a variable as a representation of no value.</t>
+  </si>
+  <si>
+    <t>Both undefined and null indicate that a variable has not been assigned a value.</t>
+  </si>
+  <si>
+    <t>Null is a primitive value used when a variable has not been assigned a value. Undefined is a primitive value that represents an empty or non-existent reference.</t>
+  </si>
+  <si>
+    <t>Which is the correct way to define an Array in JavaScript?</t>
+  </si>
+  <si>
+    <t>var foo = new Array(1:"arr",2:"king",3:"sim")</t>
+  </si>
+  <si>
+    <t>var foo = new Array:1=(" arr ")2=("mike")3=("ijm")</t>
+  </si>
+  <si>
+    <t>var foo = new Array("jhon","simon","lucky")</t>
+  </si>
+  <si>
+    <t>var foo = new Array=" arry ","kims","jimy"</t>
+  </si>
+  <si>
+    <t>Which of the following are correct closure functions?</t>
+  </si>
+  <si>
+    <t>function foo(x) {
+  var tmp = 3;
+  return function (y) {
+    alert(x + y + (++tmp));
+  }
+}
+var bar = foo(2); // bar is now a closure.
+bar(10);</t>
+  </si>
+  <si>
+    <t>function foo(x) {
+  var tmp = 3;
+  function bar(y) {
+    alert(x + y + (++tmp));
+  }
+  bar(10);
+}
+foo(2)</t>
+  </si>
+  <si>
+    <t>function foo(x) {
+  var tmp = 3;
+  function bar(y) {
+    function bar1(tmp) {
+        alert(x + y + (++tmp));
+    }
+  }
+  bar(10);
+}
+foo(2)</t>
+  </si>
+  <si>
+    <t>function foo(x) {
+  var tmp = 3;
+  return function (y) {
+    alert(x + y + tmp);
+    x.memb = x.memb ? x.memb + 1 : 1;
+    alert(x.memb);
+  }
+}
+var age = new Number(2);
+var bar = foo(age); // bar is now a closure referencing age.
+bar(10);</t>
+  </si>
+  <si>
+    <t>Which of the following variable examples is/are undefined?</t>
+  </si>
+  <si>
+    <t>var a;</t>
+  </si>
+  <si>
+    <t>var a = "undefined";</t>
+  </si>
+  <si>
+    <t>var a = undefined;</t>
+  </si>
+  <si>
+    <t>What is the value of "n1" and "n2" after executing the following code?
+var str = "Finding foo in Foo and Bar"; 
+var n1 = str.search("Foo");
+var n2 = str.search(/Foo/i);</t>
+  </si>
+  <si>
+    <t>n1 = 15, n2 = 15</t>
+  </si>
+  <si>
+    <t>n1 = 15, n2 = 8</t>
+  </si>
+  <si>
+    <t>n1 = 8, n2 = 8</t>
+  </si>
+  <si>
+    <t>The following are the samples for getting a selected value in the from a dropdown list:
+&lt;select id="ddlViewBy"&gt;
+&lt;option value="1"&gt;test1&lt;/option&gt;
+&lt;option value="2" selected="selected"&gt;test2&lt;/option&gt;
+&lt;option value="3"&gt;test3&lt;/option&gt;
+&lt;/select&gt;
+Which code block is correct?</t>
+  </si>
+  <si>
+    <t>var e = document.getElementById("ddlViewBy");
+var strUser = e.options[e.selectedIndex].text;</t>
+  </si>
+  <si>
+    <t>var e = document.getElementById("ddlViewBy");
+var strUser = e.options[e.selectedIndex].value;</t>
+  </si>
+  <si>
+    <t>var e = document.getElementByName("ddlViewBy");
+var strUser = e.options[e.selectedIndex].text;</t>
+  </si>
+  <si>
+    <t>var e = document.getElementByName("ddlViewBy");
+var strUser = e.options[e.selectedIndex].value;</t>
+  </si>
+  <si>
+    <t>Which of these options is the most maintainable way to attach JavaScript functionality to an HTML element?</t>
+  </si>
+  <si>
+    <t>&lt;p onclick="alert('You clicked me!')"&gt;some text&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;function fun(){alert('You clicked me!')}&lt;/script&gt;
+  &lt;a onclick=fun()&gt;...&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;
+  function fun(){ alert('You clicked me!'); };
+  var el = document.getElementById("click-target");
+  el.onClick = fun;
+ &lt;/script&gt;
+ &lt;a id="click-target"&gt;...&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="javascript:alert('You clicked me!')"&gt;...&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>What is the final value of the variable bar in the following code?
+var foo = 9;
+bar = 5;
+(function() {
+    var foo = 2;
+    bar= 1;
+}())
+bar = bar + foo;</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Having an array object var arr = new Array(), what is the best way to add a new item to the end of an array?</t>
+  </si>
+  <si>
+    <t>arr.push("New Item")</t>
+  </si>
+  <si>
+    <t>arr[arr.length] = "New Item"</t>
+  </si>
+  <si>
+    <t>arr.unshift("New Item")</t>
+  </si>
+  <si>
+    <t>arr.append("New Item")</t>
+  </si>
+  <si>
+    <t>Choose all valid forms of the argument list for the FileOutputStream constructor shown below:</t>
+  </si>
+  <si>
+    <t>FileOutputStream( FileDescriptor fd )</t>
+  </si>
+  <si>
+    <t>FileOutputStream( String n, boolean a )</t>
+  </si>
+  <si>
+    <t>FileOutputStream( boolean a )</t>
+  </si>
+  <si>
+    <t>FileOutputStream()</t>
+  </si>
+  <si>
+    <t>FileOutputStream( File f )</t>
+  </si>
+  <si>
+    <t>Assuming the servlet method for handling HTTPGET requests is doGet(HttpServletRequest req, HTTPServletResponse res), how can the request parameter in that servlet be retrieved?</t>
+  </si>
+  <si>
+    <t>String value=req.getInitParameter(10);</t>
+  </si>
+  <si>
+    <t>String value=req.getInitParameter("product");</t>
+  </si>
+  <si>
+    <t>String value=res.getParameter("product");</t>
+  </si>
+  <si>
+    <t>String value=req.getParameter("product");</t>
+  </si>
+  <si>
+    <t>The principal finder method that must be implemented by every entity bean class is:</t>
+  </si>
+  <si>
+    <t>findByPrimaryKey()</t>
+  </si>
+  <si>
+    <t>ejbGetByPrimaryKey()</t>
+  </si>
+  <si>
+    <t>ejbFindPrimayKey()</t>
+  </si>
+  <si>
+    <t>getPrimaryKey()</t>
+  </si>
+  <si>
+    <t>getFinder()</t>
+  </si>
+  <si>
+    <t>Which of the following must be implemented by a JMS message-driven bean?</t>
+  </si>
+  <si>
+    <t>MessageDrivenBean and MessageDrivenContext interfaces</t>
+  </si>
+  <si>
+    <t>MessageListener and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>MessageProducer and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>ObjectMessage and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>Which of these is not an event listener adapter defined in the java.awt.event package?</t>
+  </si>
+  <si>
+    <t>ActionAdapter</t>
+  </si>
+  <si>
+    <t>MouseListener</t>
+  </si>
+  <si>
+    <t>WindowAdapter</t>
+  </si>
+  <si>
+    <t>FocusListener</t>
+  </si>
+  <si>
+    <t>Which of the following is not a tier of three-tier architecture?</t>
+  </si>
+  <si>
+    <t>Client Interface</t>
+  </si>
+  <si>
+    <t>Business Logic</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Data Storage</t>
+  </si>
+  <si>
+    <t>Which distributed object technology is most appropriate for systems that consist of objects written in different languages and that execute on different operating system platforms?</t>
+  </si>
+  <si>
+    <t>RMI</t>
+  </si>
+  <si>
+    <t>CORBA</t>
+  </si>
+  <si>
+    <t>COBRA</t>
+  </si>
+  <si>
+    <t>DCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM </t>
+  </si>
+  <si>
+    <t>What is the output of the given program?
+public class Test95 {
+        public static void main(String[] args) {
+                System.out.println(2*010-0x10);
+        }
+}</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>Which of the following is a well-known HTTP port?</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137 </t>
+  </si>
+  <si>
+    <t>Which of the following statements is true of the HashMap class?</t>
+  </si>
+  <si>
+    <t>It stores information as key/value pairs.</t>
+  </si>
+  <si>
+    <t>Elements are returned in the order they were added.</t>
+  </si>
+  <si>
+    <t>It does not permit null keys.</t>
+  </si>
+  <si>
+    <t>It does not permit null values.</t>
+  </si>
+  <si>
+    <t>Which is the correct way to create a daemon/background thread in Java?</t>
+  </si>
+  <si>
+    <t>Thread t = new Thread();
+t.start();
+t.setDaemon();</t>
+  </si>
+  <si>
+    <t>Thread t = new Thread();
+t.start();
+t.setDaemon(true);</t>
+  </si>
+  <si>
+    <t>Thread t = new Thread();
+t.setDaemon();
+t.start();</t>
+  </si>
+  <si>
+    <t>Thread t = new Thread();
+t.setDaemon(true);
+t.start();</t>
+  </si>
+  <si>
+    <t>Which class method will be called under lines //Line 1 and //Line 2 in the following code?
+class Rectangle {
+ double width, length;
+ Rectangle(double width, double length) {
+  this.width = width;
+  this.length = length;
+ }
+ double getArea() {
+  double area = width * length;
+  return area;
+ }
+ void show() {
+  System.out.println(""The width and length are: "" + width + "", "" + length);
+  System.out.println(""The area is: "" + getArea());
+ }
+}
+class Square extends Rectangle {
+ double width, length;
+ Square(double width) {
+  super(width, width);
+  this.width = width;
+ }
+ double getArea() {
+  double area = width * width;
+  return area;
+ }
+ void show() {
+  System.out.println(""The width is: "" + width);
+  System.out.println(""The area is: "" + getArea());
+ }
+ public static void main(String[] args) {
+  Rectangle shape1 = new Rectangle(5, 2);
+  Square shape2 = new Square(5);
+  shape1.show(); // Line 1
+  shape2.show(); // Line 2
+ }
+}</t>
+  </si>
+  <si>
+    <t>shape1.show(); // Line 1 - Rectangle Class Method Call
+shape2.show(); // Line 2 - Square Class Method Call</t>
+  </si>
+  <si>
+    <t>shape1.show(); // Line 1 - Square Class Method Call
+shape2.show(); // Line 2 - Square Class Method Call</t>
+  </si>
+  <si>
+    <t>shape1.show(); // Line 1 - Rectangle Class Method Call
+shape2.show(); // Line 2 - Rectangle Class Method Call</t>
+  </si>
+  <si>
+    <t>The code will throw a runtime error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the following JDBC methods is used to retrieve large binary objects? </t>
+  </si>
+  <si>
+    <t>getBinaryStream()</t>
+  </si>
+  <si>
+    <t>getText()</t>
+  </si>
+  <si>
+    <t>getAsciiStream</t>
+  </si>
+  <si>
+    <t>getString()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getUniStream() </t>
+  </si>
+  <si>
+    <t>Which of the following methods will cause a thread to stop?</t>
+  </si>
+  <si>
+    <t>Invoking the interrupt() method of the thread.</t>
+  </si>
+  <si>
+    <t>Invoking the sleep() method of the thread.</t>
+  </si>
+  <si>
+    <t>When execution of the run() method ends.</t>
+  </si>
+  <si>
+    <t>Which of the following methods should be invoked by the container to get a bean back to its working state?</t>
+  </si>
+  <si>
+    <t>EJBPassivate()</t>
+  </si>
+  <si>
+    <t>EJBActivate()</t>
+  </si>
+  <si>
+    <t>EJBRemove()</t>
+  </si>
+  <si>
+    <t>EJBOpen()</t>
+  </si>
+  <si>
+    <t>EJBActivation()</t>
+  </si>
+  <si>
+    <t>What protocol is used by the DatagramSocket class?</t>
+  </si>
+  <si>
+    <t>STCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>Which of these interfaces are used by implementations of models for JTable?</t>
+  </si>
+  <si>
+    <t>TableModel</t>
+  </si>
+  <si>
+    <t>TableColumnModel</t>
+  </si>
+  <si>
+    <t>TableSelectionModel</t>
+  </si>
+  <si>
+    <t>ListModel</t>
+  </si>
+  <si>
+    <t>1 &lt;libraryPrefix:handlerName parameterNAme="value"&gt;
+2 &lt;%=23*counter %&gt;
+3 &lt;b&gt;Congratulations!&lt;/b&gt;
+Which of the following is the correct way to complete the code snippet above?</t>
+  </si>
+  <si>
+    <t>&lt;/libraryPrefix:handlerName&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/libraryPrefix:handlerName paremeterName="value"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/handlerName&gt;</t>
+  </si>
+  <si>
+    <t>&lt;libraryPrefix&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following symbols are metacharacters supported by the java.util.regex API?</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Which statements are true about the "switch" construct? Select all true statements.</t>
+  </si>
+  <si>
+    <t>The "default" statement must be placed after all other case statements.</t>
+  </si>
+  <si>
+    <t>After the matching "case" is found and executed, the execution will always continue with the first statement right after the "switch" construct.</t>
+  </si>
+  <si>
+    <t>The "default" statement will always execute.</t>
+  </si>
+  <si>
+    <t>The "default" statement will execute, if no matching "case" statement is found.</t>
+  </si>
+  <si>
+    <t>How many objects are created by the following code?
+Object a, b, c, d, e;
+e = new Object ();
+b = a = e;
+e = new Object ();</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>That code is invalid.</t>
+  </si>
+  <si>
+    <t>Which of these interfaces is the most applicable when creating a class that associates a set of keys with a set of values?</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SortedSet </t>
+  </si>
+  <si>
+    <t>In which class is the notify method defined?</t>
+  </si>
+  <si>
+    <t>Thread</t>
+  </si>
+  <si>
+    <t>Applet</t>
+  </si>
+  <si>
+    <t>Runnable</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Which method in the HttpServlet class corresponds to the HTTPPUT method?</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>doPut</t>
+  </si>
+  <si>
+    <t>httpPut</t>
+  </si>
+  <si>
+    <t>putHttp</t>
+  </si>
+  <si>
+    <t>What will be the output of the following code?
+public double beraknaOmkrets()
+{
+    DecimalFormat f = new DecimalFormat("##.0");
+    int radie = 3;
+    double omkrets = 0;
+    omkrets = radie*2*3.14;
+    return f.format(omkrets).toString;
+}</t>
+  </si>
+  <si>
+    <t>It returns the value generated by the statement "f.format(omkrets).toString;".</t>
+  </si>
+  <si>
+    <t>It compiles successfully but generates run time error "incompatible return type".</t>
+  </si>
+  <si>
+    <t>It returns a compile time error.</t>
+  </si>
+  <si>
+    <t>Which of the following are the methods of the Thread class?</t>
+  </si>
+  <si>
+    <t>stay()</t>
+  </si>
+  <si>
+    <t>go()</t>
+  </si>
+  <si>
+    <t>yield()</t>
+  </si>
+  <si>
+    <t>sleep(long millis)</t>
+  </si>
+  <si>
+    <t>Which of the following code snippets is the best way to compare the values stored in two objects?</t>
+  </si>
+  <si>
+    <t>Using two equal signs eg. ==</t>
+  </si>
+  <si>
+    <t>Overriding equals() Method</t>
+  </si>
+  <si>
+    <t>Overriding toString() Method</t>
+  </si>
+  <si>
+    <t>Overriding clone() Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of the type erasure process, when compiling a class or interface that extends a parameterized class or implements a parameterized interface, the compiler may need to create a synthetic method, called a _________. </t>
+  </si>
+  <si>
+    <t>bridge method</t>
+  </si>
+  <si>
+    <t>helper method</t>
+  </si>
+  <si>
+    <t>stub method</t>
+  </si>
+  <si>
+    <t>raw method</t>
+  </si>
+  <si>
+    <t>Which of the following is the correct syntax for suggesting that the JVM perform garbage collection?</t>
+  </si>
+  <si>
+    <t>System.setGarbageCollection();</t>
+  </si>
+  <si>
+    <t>System.out.gc();</t>
+  </si>
+  <si>
+    <t>System.gc();</t>
+  </si>
+  <si>
+    <t>System.free();</t>
+  </si>
+  <si>
+    <t>Which of the following interfaces makes it possible for Java to save an object to a file and turn it into a data stream?</t>
+  </si>
+  <si>
+    <t>java.io.Serialization</t>
+  </si>
+  <si>
+    <t>java.net.Serializable</t>
+  </si>
+  <si>
+    <t>java.net.Serialization</t>
+  </si>
+  <si>
+    <t>java.io.Serializable</t>
+  </si>
+  <si>
+    <t>java.net.io.Serializable</t>
+  </si>
+  <si>
+    <t>Which of the following options is a valid JSP declaration?</t>
+  </si>
+  <si>
+    <t>%! String name="Patricia" %</t>
+  </si>
+  <si>
+    <t>%! String name="Patricia"; %</t>
+  </si>
+  <si>
+    <t>% String name="Devyn" %</t>
+  </si>
+  <si>
+    <t>% public String name=Devyn; %</t>
+  </si>
+  <si>
+    <t>Which class contains a method to create a directory?</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>DataOutput</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>FileDescriptor</t>
+  </si>
+  <si>
+    <t>FileOutputStream</t>
+  </si>
+  <si>
+    <t>Choose the best way to print "Good bye" to the console, given that string x has character d in it.</t>
+  </si>
+  <si>
+    <t>if(x.contains("d"))
+{
+    System.out.println("Goodbye!");
+}</t>
+  </si>
+  <si>
+    <t>if(x.indexOf("d") &gt;= 0) {
+  System.out.println("Goodbye!");
+}</t>
+  </si>
+  <si>
+    <t>if(x.compareTo("d") == 0){
+   System.out.println("Goodbye!");
+}</t>
+  </si>
+  <si>
+    <t>With regard to the destroy lifecycle method, identify the correct statements about its purpose or about how and when it is invoked.</t>
+  </si>
+  <si>
+    <t>It gives the servlet an opportunity to clean up resources.</t>
+  </si>
+  <si>
+    <t>Like try-catch, it is called upon an exception.</t>
+  </si>
+  <si>
+    <t>It is rarely used but can be called to remove a servlet from memory.</t>
+  </si>
+  <si>
+    <t>It isn't called if the server crashes.</t>
+  </si>
+  <si>
+    <t>Why would the following code snippet not compile successfully?
+if (mangoList instanceof List&lt;Mango&gt;) { System.out.println("true"); }</t>
+  </si>
+  <si>
+    <t>It is unknown whether mangoList is a List type.</t>
+  </si>
+  <si>
+    <t>Generic types are erased before runtime.</t>
+  </si>
+  <si>
+    <t>The instanceof keyword only works on primitive types.</t>
+  </si>
+  <si>
+    <t>Select all true statements:</t>
+  </si>
+  <si>
+    <t>Threads exist within a process.</t>
+  </si>
+  <si>
+    <t>Every process has at least one thread.</t>
+  </si>
+  <si>
+    <t>Processes exist within a thread.</t>
+  </si>
+  <si>
+    <t>A thread may belong to more than one process.</t>
+  </si>
+  <si>
+    <t>Which of the following require explicit try/catch exception handling by the programmer?</t>
+  </si>
+  <si>
+    <t>Accessing a method in another class</t>
+  </si>
+  <si>
+    <t>Attempting to open a network socket</t>
+  </si>
+  <si>
+    <t>Attempting to open a file</t>
+  </si>
+  <si>
+    <t>Traversing each member of an array</t>
+  </si>
+  <si>
+    <t>A previously saved handle has to be retrieved from an EJBObject named 'bookEJBObject'. The following remote interface has been written to restart the processing for that particular request:
+1. ObjectInputStream stream = 
+2.                new ObjectInputStream(new FileInputStream(fileName));
+3.
+4. Handle bookHandle = (Handle) stream.readObject();
+5.
+6. BookRemoteInterface bookEjbObject = (BookRemoteInterface) XX() ;
+Which of the following should be substituted to Method XX() on line 6?</t>
+  </si>
+  <si>
+    <t>javax.rmi.PortableRemoteObject(bookHandle.getEJBObject(), BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>javax.rmi.PortableRemoteObject(EJBObject, BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>javax.rmi.PortableRemoteObject.narrow(bookHandle.getEJBObject(), BookRemoteInterface.class);</t>
+  </si>
+  <si>
+    <t>javax.rmi.PortableRemoteObject.narrow(bookHandle, BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>ookHandle.getEJBObject()</t>
+  </si>
+  <si>
+    <t>The method foo() defined in the class Quiz has the following signature:
+public static double foo(double f)
+What can be said about foo()?</t>
+  </si>
+  <si>
+    <t>It is a class method.</t>
+  </si>
+  <si>
+    <t>It is an instance variable.</t>
+  </si>
+  <si>
+    <t>It is a class attribute.</t>
+  </si>
+  <si>
+    <t>What is the output of the given program?
+public class Test71{
+        public static void main(String[] args) {
+                System.out.println(new Child().toString());
+        }
+}
+class Parent {
+        public String toString() { return this.getClass().getName(); }
+}
+class Child extends Parent {}</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>What should be the replacement of //ABC in the following code?
+class Krit
+{
+    String str= new String("OOPS !!! JAVA");
+    public void KritMethod(final int iArgs)
+    {
+      int iOne;
+      class Bicycle
+      {
+        public void sayHello()
+        {
+          //ABC
+        }
+      }
+    }
+    public void Method2()
+    {
+      int iTwo;
+    }
+}</t>
+  </si>
+  <si>
+    <t>System.out.print(str);</t>
+  </si>
+  <si>
+    <t>System.out.print(iOne);</t>
+  </si>
+  <si>
+    <t>System.out.print(iTwo);</t>
+  </si>
+  <si>
+    <t>System.out.print(iArgs);</t>
+  </si>
+  <si>
+    <t>What is the output of the given console application?
+public class Test18 {
+        public static void main(String[] args) {
+                for (int i=0; i&lt;7; i++) {
+                        if (i==4) continue;
+                        System.out.print(i);
+                }
+        }
+}</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>012356</t>
+  </si>
+  <si>
+    <t>0123567</t>
+  </si>
+  <si>
+    <t>01234567</t>
+  </si>
+  <si>
+    <t>Assuming the tag library is in place and the tag handler is correct, which of the following is the correct way to use a custom tag in a JSP page?</t>
+  </si>
+  <si>
+    <t>&lt;yourLibrary="whatColorlslt" color="red"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;yourLibrary:whatColorlslt color="red"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;yourLibrary color="red"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;yourLibrary.whatColorlslt color="red"/&gt;</t>
+  </si>
+  <si>
+    <t>Which of the following transaction modes are supported by Enterprise Java Beans?</t>
+  </si>
+  <si>
+    <t>TX_NOT_SUPPORTED</t>
+  </si>
+  <si>
+    <t>TX_BEAN_MANAGED</t>
+  </si>
+  <si>
+    <t>TX_REQUIRED</t>
+  </si>
+  <si>
+    <t>TX_MANDATORY</t>
+  </si>
+  <si>
+    <t>All of the above</t>
+  </si>
+  <si>
+    <t>What would be the result of the following code?
+public class Quest {
+ int i=0;
+ public static void main(String argv[]) {
+ }
+ Quest() {
+  top:
+   while(i &lt;2) {
+    System.out.println(i);
+    i++;
+    continue top;
+   }
+ }
+}</t>
+  </si>
+  <si>
+    <t>The code will compile but will not output anything at runtime.</t>
+  </si>
+  <si>
+    <t>The code will compile and output 0.</t>
+  </si>
+  <si>
+    <t>The code will compile and output 0 followed by 1.</t>
+  </si>
+  <si>
+    <t>The code will not compile as a target label cannot appear before the corresponding continue or break statement.</t>
+  </si>
+  <si>
+    <t>There are three classes named A, B, and C. The class B is derived from class A and class C is derived from B. Which of the following relations are correct for the given classes?</t>
+  </si>
+  <si>
+    <t>Any instance of A is an instance of B.</t>
+  </si>
+  <si>
+    <t>Any instance of B is an instance of A.</t>
+  </si>
+  <si>
+    <t>Any instance of C is an instance of B.</t>
+  </si>
+  <si>
+    <t>Any instance of B is an instance of C.</t>
+  </si>
+  <si>
+    <t>What would happen when the following code is compiled and ran?
+private class Crack {
+}
+public class Manic
+{
+    transient int  numb;
+    public static void main(String sparrow[])
+    { }
+}</t>
+  </si>
+  <si>
+    <t>A compilation error will occur, because an integer cannot be transient.</t>
+  </si>
+  <si>
+    <t>A compilation error will occur, because transient is not a data type.</t>
+  </si>
+  <si>
+    <t>A compilation error will occur, because of an erroneous main method.</t>
+  </si>
+  <si>
+    <t>A compilation error will occur, because class Crack cannot be private.</t>
+  </si>
+  <si>
+    <t>What exception is thrown by this code, if arr[j]&gt;arr[j+1]:
+public static  void main(String[] args) {
+    int []arr={12,23,43,34,3,6,7,1,9,6};
+        {  
+              int temp;
+              for (int i=0;i&lt;arr.length;i++)
+              {  
+                for (int j=0;j&lt;arr.length-i;j++ )
+                {
+                  if (arr[j]&gt;arr[j+1])
+                 {  
+                     temp=arr[j];
+                     arr[j+1]=arr[j];
+                     arr[j+1]=temp;
+                  }
+                }
+              } 
+            }
+        for(int i=0; i&lt;arr.length; i++)
+         {
+             System.out.print(arr[i] + " ");
+         }
+    }</t>
+  </si>
+  <si>
+    <t>NumberFormatException</t>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundException</t>
+  </si>
+  <si>
+    <t>IOException</t>
+  </si>
+  <si>
+    <t>Which is the right syntax of a javadoc comment for parameter of the method test(int)?
+public class Test125 {
+        public static void main(String[] args) {
+                new Test125().test(125);
+        }
+        public void test(int a) {
+                for (int i=0; i&lt;a; System.out.println(i++));
+        }
+}</t>
+  </si>
+  <si>
+    <t>@param a Description</t>
+  </si>
+  <si>
+    <t>@parameter int a Description</t>
+  </si>
+  <si>
+    <t>@param Description</t>
+  </si>
+  <si>
+    <t>@parameter a Description</t>
+  </si>
+  <si>
+    <t>Which type(s) cannot be used as generics?</t>
+  </si>
+  <si>
+    <t>primitives</t>
+  </si>
+  <si>
+    <t>enum types</t>
+  </si>
+  <si>
+    <t>Inner classes</t>
+  </si>
+  <si>
+    <t>Which code snippet will check for the existence of the file "text.txt" in the current location?</t>
+  </si>
+  <si>
+    <t>File f = new File("text.txt");
+        System.out.println(f.exists());</t>
+  </si>
+  <si>
+    <t>File f = new File();
+        f.setName("text.txt");
+        System.out.println(f.exists());</t>
+  </si>
+  <si>
+    <t>File f = new File("text.txt");
+        System.out.println(f.equals(f));</t>
+  </si>
+  <si>
+    <t>SQLException has a feature of chaining - identify the right code to execute the same from the following options:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch(SQLException e) 
+        { 
+        out.println(e.getMessage()); 
+        while((e=e.getNextException())!=null) 
+                { 
+                out.println(e.getMessage()); 
+                } 
+        } </t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch(SQLException e) 
+{ 
+        out.println(e.getNextException()); 
+        while((e=e.getMessage())!=null) 
+                { 
+                out.println(e.getMessage()); 
+                } 
+        } </t>
+  </si>
+  <si>
+    <t>catch(SQLException e) 
+        { 
+        out.println(e.getMessage()); 
+        while((e=e.getEncapsulatedException())!=null) 
+                { 
+                out.println(e.getMessage()); 
+                } 
+        }</t>
+  </si>
+  <si>
+    <t>catch(ClassNotFoundException e) 
+        { 
+        out.println(e.getMessage()); 
+        while((e=e.getNextException())!=null) 
+                { 
+                out.println(e.getMessage()); 
+                } 
+        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch(ClassNotFoundException e){ 
+                { 
+                out.println(e.getMessage()); 
+                } 
+} </t>
+  </si>
+  <si>
+    <t>What will be the output when this code is compiled and run?
+public class Test {
+    public Test() {
+        Bar b = new Bar();
+        Bar b1 = new Bar();
+        update(b);
+        update(b1);
+        b1 = b;
+        update(b);
+        update(b1);
+    }
+    private void update(Bar bar) {
+        bar.x = 20;
+        System.out.println(bar.x);
+    }
+    public static void main(String args[]) {
+        new Test();
+    }
+    private class Bar {
+        int x = 10;
+    }
+}</t>
+  </si>
+  <si>
+    <t>The code will fail to compile.</t>
+  </si>
+  <si>
+    <t>10 10 10 10</t>
+  </si>
+  <si>
+    <t>20 20 20 20</t>
+  </si>
+  <si>
+    <t>10 20 10 20</t>
+  </si>
+  <si>
+    <t>Which of the following is true regarding sleep() and wait() in threaded environments?</t>
+  </si>
+  <si>
+    <t>Both can take time in milliseconds as a parameter and will execute when the time is expired.</t>
+  </si>
+  <si>
+    <t>Both will wait for another thread's notify() method before it can execute.</t>
+  </si>
+  <si>
+    <t>The wait() method will wait for a specific time (in milliseconds) and continue execution afterwards, while sleep() will wait for another thread's notify() method before it will execute.</t>
+  </si>
+  <si>
+    <t>The sleep() method will wait for a specific time (in milliseconds) and continue execution afterwards, while wait() will wait for another thread's notify() method before it will execute.</t>
+  </si>
+  <si>
+    <t>Which of the following methods is used to get the parameters of an applet?</t>
+  </si>
+  <si>
+    <t>getAppletContext()</t>
+  </si>
+  <si>
+    <t>getAppletInfo()</t>
+  </si>
+  <si>
+    <t>getParameter()</t>
+  </si>
+  <si>
+    <t>getParameters()</t>
+  </si>
+  <si>
+    <t>What is the output of the given console application?
+public class Test31 {
+        public static void main(String[] args) {
+                test();
+        }
+        public static void test() {
+                try {
+                        System.out.print("-try");
+                        return;
+                } catch (Exception e) {
+                        System.out.print("-catch");
+                } finally {
+                        System.out.print("-finally");
+                }
+        }
+}</t>
+  </si>
+  <si>
+    <t>-try</t>
+  </si>
+  <si>
+    <t>-try-catch</t>
+  </si>
+  <si>
+    <t>-try-finally</t>
+  </si>
+  <si>
+    <t>-try-catch-finally</t>
+  </si>
+  <si>
+    <t>What is the easiest and fastest way to sort the following string array?
+String[] myString = {"cat","lion", "dog", "mouse"}</t>
+  </si>
+  <si>
+    <t>Array.Sort(myString);</t>
+  </si>
+  <si>
+    <t>Collections.Sort(myString);</t>
+  </si>
+  <si>
+    <t>Arrays.Sort(myString);</t>
+  </si>
+  <si>
+    <t>What is the term to describe a situation where two or more threads are blocked forever, waiting for each other?</t>
+  </si>
+  <si>
+    <t>deadlock</t>
+  </si>
+  <si>
+    <t>starvation</t>
+  </si>
+  <si>
+    <t>livelock</t>
+  </si>
+  <si>
+    <t>liveness</t>
+  </si>
+  <si>
+    <t>Consider the following code:
+public static void main(String bicycle[])
+{
+        System.out.println(bicycle[0]);
+}
+What would be the result if "java TwoTyre one two" is entered in the command line?</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>TwoTyre</t>
+  </si>
+  <si>
+    <t>What would happen on trying to compile and run the following code?
+class House {
+ public final void MaintainMethod() {
+  System.out.println("MaintainMethod");
+ }
+}
+public class Building extends House {
+ public static void main(String argv[]) {
+  House h = new House();
+  h.MaintainMethod();
+ }
+}</t>
+  </si>
+  <si>
+    <t>A runtime error will occur because class House is not defined as final.</t>
+  </si>
+  <si>
+    <t>Successful compilation and output of "MaintainMethod" at run time.</t>
+  </si>
+  <si>
+    <t>A compilation error indicating that a class with any final methods must be declared final itself.</t>
+  </si>
+  <si>
+    <t>A compilation error indicating that you cannot inherit from a class with final methods.</t>
+  </si>
+  <si>
+    <t>Which of the following is true?</t>
+  </si>
+  <si>
+    <t>Each registered name for a servlet is associated with one instance of the servlet.</t>
+  </si>
+  <si>
+    <t>Each registered name for a classloader is associated with one instance of the servlet.</t>
+  </si>
+  <si>
+    <t>Each registered name for a servlet is associated with two instances of the servlet.</t>
+  </si>
+  <si>
+    <t>Each registered name for a servlet is not associated even with one instance of the servlet.</t>
+  </si>
+  <si>
+    <t>Each alias for a servlet is associated with one instance of the servlet.</t>
+  </si>
+  <si>
+    <t>A pre-cached instance is used to load state information on creation of an EJB.</t>
+  </si>
+  <si>
+    <t>a.
+True</t>
+  </si>
+  <si>
+    <t>b.
+False</t>
+  </si>
+  <si>
+    <t>SessionSynchronization Interface must be implemented to reset the instance variables.</t>
+  </si>
+  <si>
+    <t>What will happen to the running session beans if the EJB container crashes or restarts?</t>
+  </si>
+  <si>
+    <t>a.
+They will get destroyed</t>
+  </si>
+  <si>
+    <t>b.
+They will keep on running</t>
+  </si>
+  <si>
+    <t>c.
+Their execution will be halted temporarily</t>
+  </si>
+  <si>
+    <t>d.
+None of the above</t>
+  </si>
+  <si>
+    <t>Database connection pooling is beneficial because:</t>
+  </si>
+  <si>
+    <t>a.
+It avoids the overhead of establishing a new database connection</t>
+  </si>
+  <si>
+    <t>b.
+Maintaining an open database connection consumes resources on the database</t>
+  </si>
+  <si>
+    <t>c.
+Both a and b</t>
+  </si>
+  <si>
+    <t>d.
+ODBC is not required for establishing a connection</t>
+  </si>
+  <si>
+    <t>Which of the following statements are correct with regard to EJB QL?</t>
+  </si>
+  <si>
+    <t>a.
+The EJB QL defines finder methods for entity beans with container managed persistence</t>
+  </si>
+  <si>
+    <t>b.
+EJB QL is introduced in EJB 2.0</t>
+  </si>
+  <si>
+    <t>c.
+EJB QL is provided for navigation across a network of enterprise beans</t>
+  </si>
+  <si>
+    <t>d.
+EJB QL is a language that can be compiled</t>
+  </si>
+  <si>
+    <t>e.
+All of the above</t>
+  </si>
+  <si>
+    <t>To disable the Passivaton process, set the EJBPassivationTimeout() variable to zero.</t>
+  </si>
+  <si>
+    <t>What are the three classes that a Session EJB class must provide?</t>
+  </si>
+  <si>
+    <t>a.
+Home Interface, EJB Remote Interface, and Session context</t>
+  </si>
+  <si>
+    <t>b.
+EJB class, Home Interface, and EJB Remote Interface</t>
+  </si>
+  <si>
+    <t>c.
+EJB class, Session context, and EJB Remote Interface</t>
+  </si>
+  <si>
+    <t>d.
+EJB class, EJB Remote Interface, and Session Synchronization Interface</t>
+  </si>
+  <si>
+    <t>a.
+EJBPassivate()</t>
+  </si>
+  <si>
+    <t>b.
+EJBActivate()</t>
+  </si>
+  <si>
+    <t>c.
+EJBRemove()</t>
+  </si>
+  <si>
+    <t>d.
+EJBOpen()</t>
+  </si>
+  <si>
+    <t>e.
+EJBActivation()</t>
+  </si>
+  <si>
+    <t>A heavy tool manufacturing company manages its business and production by using enterprise beans. A session bean named 'Status' is used to get the production status for the day. The following code gets the context:
+Context initialContext = new InitialContext();
+The bean provides a local client view. For the local home interface named 'StatusHome.' What should be the lookup?</t>
+  </si>
+  <si>
+    <t>a.
+StatusHome statusHome = (StatusHome)
+initialContext.lookup("java:tools/env/ejb/status");</t>
+  </si>
+  <si>
+    <t>b.
+StatusHome statusHome = Context.lookup("java:tools/env/ejb/status");</t>
+  </si>
+  <si>
+    <t>c.
+StatusHome statusHome = javax.rmi.PortableRemoteObject.narrow(
+Context.lookup("java:tools/env/ejb/status"),StatusHome.class);</t>
+  </si>
+  <si>
+    <t>d.
+StatusHome statusHome = (StatusHome) javax.rmi.PortableRemoteObject.narrow(
+initialContext.lookup("java:tools/env/ejb/status"),StatusHome.class);</t>
+  </si>
+  <si>
+    <t>a.
+TX_NOT_SUPPORTED</t>
+  </si>
+  <si>
+    <t>b.
+TX_BEAN_MANAGED</t>
+  </si>
+  <si>
+    <t>c.
+TX_REQUIRED</t>
+  </si>
+  <si>
+    <t>d.
+TX_MANDATORY</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct with regard to entity, session, and message-driven beans?</t>
+  </si>
+  <si>
+    <t>a.
+All of them allow sending messages</t>
+  </si>
+  <si>
+    <t>b.
+All of them must define a remote and home interface</t>
+  </si>
+  <si>
+    <t>A client wants to access Enterprise Java Bean for some processing. The first step will be looking up the class that implements its home interface. Which of the following should be used for the purpose?</t>
+  </si>
+  <si>
+    <t>a.
+JNDI</t>
+  </si>
+  <si>
+    <t>b.
+MTS</t>
+  </si>
+  <si>
+    <t>c.
+JTS</t>
+  </si>
+  <si>
+    <t>d.
+JTA</t>
+  </si>
+  <si>
+    <t>e.
+Java IDL</t>
+  </si>
+  <si>
+    <t>An online shop employs a stateless session bean (named 'Eshop') to process the requests. 'Eshop' uses a declarative transaction management system. The following code is from the xml deployment descriptor file of the bean:
+1.        &lt;ejb-jar&gt;
+2.        &lt;enterprise-beans&gt;
+3.         &lt;session&gt;
+4.                &lt;ejb-name&gt;Eshop&lt;/ejb-name&gt;
+5.                &lt;home&gt;com.solution.EshopHome&lt;/home&gt;
+6.                &lt;remote&gt;com.solution.Eshop&lt;/remote&gt;
+7.                &lt;local-home&gt;com.solution.EshopLocalHome&lt;/local-home&gt;
+8.                &lt;local&gt;com.solution.EshopLocal&lt;/local&gt;
+9.                &lt;ejb-class&gt;com.solution.EshopBean&lt;/ejb-class&gt;
+10.
+11.
+12.         &lt;/session&gt;
+13.        &lt;/enterprise-beans&gt;
+14.        &lt;/ejb-jar&gt;
+The session and transaction attributes are to be coded in the lines numbered 10 and 11. Which of the following options should be used to make the bean work as expected?</t>
+  </si>
+  <si>
+    <t>a.
+&lt;session&gt;Stateless&lt;/session&gt;
+&lt;transaction&gt;Container&lt;/transaction&gt;</t>
+  </si>
+  <si>
+    <t>b.
+&lt;session&gt;Stateful&lt;/session&gt;
+&lt;transaction&gt;Bean&lt;/transaction&gt;</t>
+  </si>
+  <si>
+    <t>c.
+&lt;session-type&gt;Stateless&lt;/session-type&gt;
+&lt;transaction-type&gt;Container&lt;/transaction-type&gt;</t>
+  </si>
+  <si>
+    <t>d.
+&lt;session-type&gt;Stateful&lt;/session-type&gt;
+&lt;transaction-type&gt;Bean&lt;/transaction-type&gt;</t>
+  </si>
+  <si>
+    <t>e.
+&lt;session-type&gt;Stateless&lt;/session-type&gt;
+&lt;transaction&gt;Container&lt;/transaction&gt;</t>
+  </si>
+  <si>
+    <t>By interoperating via IIOP, an EJB can directly access:</t>
+  </si>
+  <si>
+    <t>a.
+Existing production systems wrapped in CORBA interface</t>
+  </si>
+  <si>
+    <t>b.
+Existing production systems wrapped in RMI interface</t>
+  </si>
+  <si>
+    <t>c.
+Network Technologies</t>
+  </si>
+  <si>
+    <t>d.
+Messaging Interface</t>
+  </si>
+  <si>
+    <t>e.
+Language Mapping</t>
+  </si>
+  <si>
+    <t>Which of the following statements is incorrect with regard to the process of Instance Pooling in EJB?</t>
+  </si>
+  <si>
+    <t>a.
+It increases the overall efficiency of the system</t>
+  </si>
+  <si>
+    <t>b.
+It facilitates sharing of 'EJB bean instances' among multiple clients</t>
+  </si>
+  <si>
+    <t>c.
+It is used with stateless session beans</t>
+  </si>
+  <si>
+    <t>d.
+It is used with entity beans</t>
+  </si>
+  <si>
+    <t>e.
+None of the above</t>
+  </si>
+  <si>
+    <t>Which of the following statements is not correct with regard to Passivation of beans?</t>
+  </si>
+  <si>
+    <t>a.
+The process is possible in all the enterprise beans</t>
+  </si>
+  <si>
+    <t>b.
+It is accompanied by some vendor specific methods, which are similar to java serialization</t>
+  </si>
+  <si>
+    <t>a.
+MessageDrivenBean and MessageDrivenContext interfaces</t>
+  </si>
+  <si>
+    <t>b.
+MessageListener and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>c.
+MessageProducer and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>d.
+ObjectMessage and MessageDrivenBean interfaces</t>
+  </si>
+  <si>
+    <t>The following method signature is found in an implemented entity bean named 'CustomerBean.' 'CustomerPK' is a class representing the primary key.
+public CustomerPK ejbFindByPrimaryKey(CustomerPK key)
+                throws FinderException
+By context look up, a client gets the reference to the home object of the above bean, named 'custHome'. It gets the 'CustomerPK' class named 'PK' by a different method. The name of EJBObject is 'Customer', which represents a customer. Which of the following options will you select to invoke the above mentioned method in the client?</t>
+  </si>
+  <si>
+    <t>a.
+Customer = custHome.findByPrimaryKey(PK);</t>
+  </si>
+  <si>
+    <t>b.
+Customer = custHome.ejbFindByPrimaryKey(PK);</t>
+  </si>
+  <si>
+    <t>c.
+custHome = custHome.ejbFindByPrimaryKey(PK);</t>
+  </si>
+  <si>
+    <t>d.
+Customer = findByPrimaryKey(PK);</t>
+  </si>
+  <si>
+    <t>e.
+PK = custHome.findByPrimaryKey(PK);</t>
+  </si>
+  <si>
+    <t>One of the methods of your entity bean retrieves the names of all the patients admitted in a particular ward of a hospital. Using a connection named 'con', you want to execute the following query:
+//secId is the parameter received by the method
+String query = "SELECT admissionId, patientFirstName, patientLastName FROM ADMISSION WHERE sectionId=" + secId;
+Which of the following options will help you execute the query?</t>
+  </si>
+  <si>
+    <t>a.
+Statement stmt=con.createStatement();
+ResultSet rs=stmt.executeQuery(query);</t>
+  </si>
+  <si>
+    <t>b.
+Statement stmt=new Statement();
+ResultSet rs=stmt.executeQuery(query);</t>
+  </si>
+  <si>
+    <t>c.
+Statement stmt=con.createStatement();
+ResultSet rs=stmt.execute(query);</t>
+  </si>
+  <si>
+    <t>d.
+Statement stmt=con.getStatement();
+ResultSet rs=stmt.executeQuery(query);</t>
+  </si>
+  <si>
+    <t>e.
+Statement stmt=con.getStatement();
+ResultSet rs=con.executeQuery(query);</t>
+  </si>
+  <si>
+    <t>The PrimaryKey class is used to provide each entity bean with a ____________:</t>
+  </si>
+  <si>
+    <t>a.
+Serial identity</t>
+  </si>
+  <si>
+    <t>b.
+Unique, serializable identity</t>
+  </si>
+  <si>
+    <t>c.
+Unique identity only</t>
+  </si>
+  <si>
+    <t>d.
+Not null identity</t>
+  </si>
+  <si>
+    <t>e.
+Serializable identity only</t>
+  </si>
+  <si>
+    <t>Which of the following statements is not correct with regard to relationships in EJB?</t>
+  </si>
+  <si>
+    <t>a.
+The tag &lt;relationships&gt; is used by CMP to enclose the relations</t>
+  </si>
+  <si>
+    <t>b.
+These can be managed by CMP or BMP</t>
+  </si>
+  <si>
+    <t>c.
+The relationship can be declared in the deployment descriptor</t>
+  </si>
+  <si>
+    <t>d.
+Directional relationship is always multidirectional</t>
+  </si>
+  <si>
+    <t>The transaction attribute of a bean is set to 'TX_REQUIRES_NEW.' What do you infer about its behavior?</t>
+  </si>
+  <si>
+    <t>a.
+It initiates a new transaction only when the previous one is concluded</t>
+  </si>
+  <si>
+    <t>b.
+It initiates a new transaction without even waiting for the previous one to conclude</t>
+  </si>
+  <si>
+    <t>c.
+It sends the request to the EJB container for initiating a new bean</t>
+  </si>
+  <si>
+    <t>d.
+The bean manages its own transaction</t>
+  </si>
+  <si>
+    <t>Both RMI and CORBA define messaging protocols called:</t>
+  </si>
+  <si>
+    <t>a.
+OMP</t>
+  </si>
+  <si>
+    <t>b.
+JRMP</t>
+  </si>
+  <si>
+    <t>c.
+IIOP</t>
+  </si>
+  <si>
+    <t>d.
+JRMP and IIOP</t>
+  </si>
+  <si>
+    <t>e.
+OMP, JRMP, and IIOP</t>
+  </si>
+  <si>
+    <t>The methods declared in Session Bean interface are known as Callback (methods).</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct with regard to JavaBeans and Enterprise JavaBeans?</t>
+  </si>
+  <si>
+    <t>a.
+Both can be visible or non-visible at run time</t>
+  </si>
+  <si>
+    <t>b.
+Both can be deployed as an Active X control</t>
+  </si>
+  <si>
+    <t>c.
+Both require a Manifest file</t>
+  </si>
+  <si>
+    <t>d.
+Both have some mechanism to tell the builder-tool/IDE about their functionality</t>
+  </si>
+  <si>
+    <t>e.
+Both define their deployment descriptors</t>
+  </si>
+  <si>
+    <t>Which of the following constitute the enhancements made to EJB 2.0?</t>
+  </si>
+  <si>
+    <t>a.
+JMS (Java Message Service) integration</t>
+  </si>
+  <si>
+    <t>b.
+Improved support for container-managed persistence (CMP)</t>
+  </si>
+  <si>
+    <t>c.
+Support for RMI/IIOP protocol for network interoperability</t>
+  </si>
+  <si>
+    <t>d.
+Management of beans relationships</t>
+  </si>
+  <si>
+    <t>Which of the following is a language in which IDL compiler of CORBA generates proxies and skeletons?</t>
+  </si>
+  <si>
+    <t>a.
+Mapping proxies</t>
+  </si>
+  <si>
+    <t>b.
+Language map</t>
+  </si>
+  <si>
+    <t>c.
+Language mapping</t>
+  </si>
+  <si>
+    <t>d.
+Proxy language maps</t>
+  </si>
+  <si>
+    <t>Which of the following is not implemented by a stateless session bean?</t>
+  </si>
+  <si>
+    <t>a.
+SessionContext</t>
+  </si>
+  <si>
+    <t>b.
+SessionSynchronization</t>
+  </si>
+  <si>
+    <t>c.
+SessionObject</t>
+  </si>
+  <si>
+    <t>d.
+EJBContext</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct with regard to 'poison' message?</t>
+  </si>
+  <si>
+    <t>a.
+A JMS destination sends this message to the consumer only once</t>
+  </si>
+  <si>
+    <t>b.
+It is not acknowledged by the consumer</t>
+  </si>
+  <si>
+    <t>c.
+JMS destination gets the acknowledgement only once</t>
+  </si>
+  <si>
+    <t>d.
+The process of sending a 'poison' message is possible with all the enterprise beans</t>
+  </si>
+  <si>
+    <t>a.
+ejbFindByPrimaryKey()</t>
+  </si>
+  <si>
+    <t>b.
+ejbGetByPrimaryKey()</t>
+  </si>
+  <si>
+    <t>c.
+ejbFindPrimayKey()</t>
+  </si>
+  <si>
+    <t>d.
+getPrimaryKey()</t>
+  </si>
+  <si>
+    <t>e.
+getFinder()</t>
+  </si>
+  <si>
+    <t>Which of the following is a name of the design pattern not associated with EJB?</t>
+  </si>
+  <si>
+    <t>a.
+Session Facade</t>
+  </si>
+  <si>
+    <t>b.
+Entity Command</t>
+  </si>
+  <si>
+    <t>c.
+Message Facade</t>
+  </si>
+  <si>
+    <t>d.
+EJB Command</t>
+  </si>
+  <si>
+    <t>Which of the following services does an EJB Server/Container provides to EJB?</t>
+  </si>
+  <si>
+    <t>a.
+Life cycle management and Instance pooling</t>
+  </si>
+  <si>
+    <t>b.
+Activation and Passivation</t>
+  </si>
+  <si>
+    <t>c.
+Transaction and Security support</t>
+  </si>
+  <si>
+    <t>d.
+Enforcement of policies and restrictions</t>
+  </si>
+  <si>
+    <t>The EJB specification defines six distinct roles in the application development and deployment life cycle. Which of the following roles is not mentioned in it?</t>
+  </si>
+  <si>
+    <t>a.
+Enterprise Bean Provider</t>
+  </si>
+  <si>
+    <t>b.
+EJB Developer</t>
+  </si>
+  <si>
+    <t>c.
+EJB Server Provider</t>
+  </si>
+  <si>
+    <t>d.
+Application Assembler</t>
+  </si>
+  <si>
+    <t>e.
+EJB Deployer</t>
+  </si>
+  <si>
+    <t>f.
+System Administrator</t>
+  </si>
+  <si>
+    <t>The interface that must be implemented by a stateless session bean is javax.ejb.SessionBean.</t>
+  </si>
+  <si>
+    <t>Which of the following services does EJB container provide to a bean?</t>
+  </si>
+  <si>
+    <t>a.
+Support for security</t>
+  </si>
+  <si>
+    <t>b.
+Support for managing multiple instances</t>
+  </si>
+  <si>
+    <t>c.
+Support for persistence</t>
+  </si>
+  <si>
+    <t>d.
+Support for transactions</t>
+  </si>
+  <si>
+    <t>The method ejbCreate() allows session beans to perform initializations. Which of the following methods should be called by the container before ejbCreate()?</t>
+  </si>
+  <si>
+    <t>a.
+newInstance()</t>
+  </si>
+  <si>
+    <t>b.
+setSessionContext()</t>
+  </si>
+  <si>
+    <t>c.
+newInstance() and setSessionContext()</t>
+  </si>
+  <si>
+    <t>d.
+ejbRemove()</t>
+  </si>
+  <si>
+    <t>We are saving a handle to an EJBObject named 'bookEJBObject' for an online book shop:
+1. javax.ejb.Handle bookHandle = _____________;
+2.
+3. ObjectOutputStream stream =
+4.                 new ObjectOutputStream(new FileOutputStream(fileName));
+5.
+6. stream.writeObject(bookHandle);
+7. stream.close();
+Which of the following methods should be filled in the blank?</t>
+  </si>
+  <si>
+    <t>a.
+(Handle) bookEJBObject()</t>
+  </si>
+  <si>
+    <t>b.
+bookEJBObject.getHandle()</t>
+  </si>
+  <si>
+    <t>c.
+bookEJBObject.getEJBHandle()</t>
+  </si>
+  <si>
+    <t>d.
+newHandleInstance()</t>
+  </si>
+  <si>
+    <t>You define an enterprise bean as follows:
+Public class CalcSessionBean implements javax.ejb.SessionBean
+Which of the following method definitions is not mandatory?</t>
+  </si>
+  <si>
+    <t>a.
+public void ejbCreate() {}</t>
+  </si>
+  <si>
+    <t>b.
+public void ejbActivate() {}</t>
+  </si>
+  <si>
+    <t>c.
+public void ejbPassivate() {}</t>
+  </si>
+  <si>
+    <t>d.
+public void ejbRemove() {}</t>
+  </si>
+  <si>
+    <t>e.
+public void ejbObject() {}</t>
+  </si>
+  <si>
+    <t>f.
+public void setSessionContext(SessionContext ctx) {}</t>
+  </si>
+  <si>
+    <t>What is the restriction that EJB specification imposes on CMP fields?</t>
+  </si>
+  <si>
+    <t>a.
+They must be public</t>
+  </si>
+  <si>
+    <t>b.
+They must not be transient</t>
+  </si>
+  <si>
+    <t>c.
+They must be non-static</t>
+  </si>
+  <si>
+    <t>d.
+They must be final</t>
+  </si>
+  <si>
+    <t>Which of the following statements is not correct for an Enterprise Java Bean?</t>
+  </si>
+  <si>
+    <t>a.
+Entity beans model business data</t>
+  </si>
+  <si>
+    <t>b.
+Session beans model business processes</t>
+  </si>
+  <si>
+    <t>c.
+Message beans send synchronous messages</t>
+  </si>
+  <si>
+    <t>An online medical shop uses Container Managed persistent beans for its operations. An OrderBean uses a query to list all the orders where payable amount is more than $800. The XML query tag in the deployment descriptor is as follows:
+1. &lt;query&gt;
+2.   &lt;query-method&gt;
+3.         &lt;method-name&gt;findBigOrders&lt;/method-name&gt;
+4.        &lt;method-params&gt;&lt;/method-params&gt;
+5.   &lt;/query-method&gt;
+6.
+7. &lt;/query&gt;
+If the name of the table is 'Order' and total amount payable is in the column named 'amount,' which of the following queries can be placed in line 6?</t>
+  </si>
+  <si>
+    <t>a.
+&lt;ejb-sql&gt;SELECT * FROM Order o WHERE o.amount &gt; 800&lt;/ejb-sql&gt;</t>
+  </si>
+  <si>
+    <t>b.
+&lt;ejb-sql&gt;SELECT OBJECT(o) FROM Order o WHERE o.amount &gt; 800&lt;/ejb-sql&gt;</t>
+  </si>
+  <si>
+    <t>c.
+&lt;ql&gt;SELECT OBJECT(o) FROM Order o WHERE o.amount &gt; 800 &lt;/ql&gt;</t>
+  </si>
+  <si>
+    <t>d.
+&lt;ejb-ql&gt;&lt;![CDATA[SELECT OBJECT(o) FROM Order o WHERE o.amount&gt;800 ]]&gt;&lt;/ejb-ql&gt;</t>
+  </si>
+  <si>
+    <t>e.
+&lt;ejb-ql&gt;SELECT OBJECT(o) FROM Order o WHERE o.amount &gt; 800 &lt;/ejb-ql&gt;</t>
+  </si>
+  <si>
+    <t>You don't have any database recovery/backup system in place. Which of the following statements is true with regard to committed and uncommitted data of your entity bean?</t>
+  </si>
+  <si>
+    <t>a.
+Committed data cannot survive a server crash</t>
+  </si>
+  <si>
+    <t>b.
+Neither committed nor uncommitted data survives a server crash</t>
+  </si>
+  <si>
+    <t>c.
+Both committed and uncommitted data survive a server or database crash</t>
+  </si>
+  <si>
+    <t>d.
+Both committed and uncommitted data survive a server crash if clustering is used</t>
+  </si>
+  <si>
+    <t>How do Enterprise Java Beans access the database?</t>
+  </si>
+  <si>
+    <t>a.
+By using Java Database Connectivity</t>
+  </si>
+  <si>
+    <t>b.
+By using Open Database Connectivity</t>
+  </si>
+  <si>
+    <t>You are working with EJB2.0. You have to retrieve a previously saved handle to an EJBObject named 'bookEJBObject.' In order to restart the processing for that particular request, you need to get the remote interface. The following code has been written for the same:
+1. ObjectInputStream stream =
+2.                new ObjectInputStream(new FileInputStream(fileName));
+3.
+4. Handle bookHandle = (Handle) stream.readObject();
+5.
+6. BookRemoteInterface bookEjbObject = (BookRemoteInterface) XX() ;
+Which of the following should substitute Method XX() of line 6?</t>
+  </si>
+  <si>
+    <t>a.
+javax.rmi.PortableRemoteObject(bookHandle.getEJBObject(), BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>b.
+javax.rmi.PortableRemoteObject(EJBObject, BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>c.
+javax.rmi.PortableRemoteObject.narraow(bookHandle.getEJBObject(), BookRemoteInterface.class);</t>
+  </si>
+  <si>
+    <t>d.
+javax.rmi.PortableRemoteObject.narraow(bookHandle, BookRemoteInterface);</t>
+  </si>
+  <si>
+    <t>e.
+bookHandle.getEJBObject()</t>
+  </si>
+  <si>
+    <t>Which of the following statements is correct with regard to the method ejbSelect()?</t>
+  </si>
+  <si>
+    <t>a.
+It is similar to finder method of entity beans</t>
+  </si>
+  <si>
+    <t>b.
+It is available to the client for querying</t>
+  </si>
+  <si>
+    <t>c.
+It cannot be used to extract data from other entity beans</t>
+  </si>
+  <si>
+    <t>d.
+It cannot return entity bean/beans</t>
+  </si>
+  <si>
+    <t>e.
+It can return values that are defined as CMP-TYPE</t>
+  </si>
+  <si>
+    <t>Which of the following statements is incorrect in relation to Smoke Testing and Sanity Testing?</t>
+  </si>
+  <si>
+    <t>a.
+A Smoke Test is designed to touch every part of the application in a cursory way whereas a Sanity Test is used to determine if a small section of the application is still working after a minor change.</t>
+  </si>
+  <si>
+    <t>b.
+A Smoke Test adopts a shallow and wide approach whereas a Sanity Test is a narrow regression test that focuses on one, or a few areas of functionality. Sanity Testing is usually narrow and deep.</t>
+  </si>
+  <si>
+    <t>c.
+A Smoke Test is usually unscripted whereas a Sanity Test is scripted either using a written set of tests or an automated test.</t>
+  </si>
+  <si>
+    <t>d.
+A Smoke Test is a normal health checkup to a build of an application before taking it to in-depth testing whereas a Sanity Test is to verify whether all requirements are met or not, checking all features breadth-first</t>
+  </si>
+  <si>
+    <t>Which of the following types of testing is likely to benefit the most from the use of test tools that provide the test capture and replay facilities?</t>
+  </si>
+  <si>
+    <t>a.
+Integration testing</t>
+  </si>
+  <si>
+    <t>b.
+Regression testing</t>
+  </si>
+  <si>
+    <t>c.
+System testing</t>
+  </si>
+  <si>
+    <t>d.
+User acceptance testing</t>
+  </si>
+  <si>
+    <t>From the options given below which of the dynamic program analysis technique is aimed at improving application performance?</t>
+  </si>
+  <si>
+    <t>a.
+Code complexity analysis</t>
+  </si>
+  <si>
+    <t>b.
+Profiling</t>
+  </si>
+  <si>
+    <t>c.
+Network packet sniffing</t>
+  </si>
+  <si>
+    <t>d.
+Spelling and grammar checking</t>
+  </si>
+  <si>
+    <t>e.
+Program slicing</t>
+  </si>
+  <si>
+    <t>Which of the following is true about Sanity Testing?</t>
+  </si>
+  <si>
+    <t>a.
+A Sanity test is used to determine if a small section of the application is still working after a minor change</t>
+  </si>
+  <si>
+    <t>b.
+A Sanity test is run to check if the build of an application is stable and it can be considered for further testing</t>
+  </si>
+  <si>
+    <t>c.
+A Sanity test is the process of testing to make sure that the older programming still works with the new changes</t>
+  </si>
+  <si>
+    <t>d.
+All of the above are true</t>
+  </si>
+  <si>
+    <t>Choose the correct description of a Stub in software testing:</t>
+  </si>
+  <si>
+    <t>a.
+A Stub is basically the same as a driver except that it is very fast in returning results</t>
+  </si>
+  <si>
+    <t>b.
+A Stub is a dummy procedure, module or unit that stands in for an unfinished portion of a system</t>
+  </si>
+  <si>
+    <t>c.
+A Stub is just a different name for an Emulator</t>
+  </si>
+  <si>
+    <t>Performance testing is used for real-time systems only.</t>
+  </si>
+  <si>
+    <t>What is the difference between Regression testing and Retesting?</t>
+  </si>
+  <si>
+    <t>a.
+Retesting is done by programmers while Regression testing is done by testers</t>
+  </si>
+  <si>
+    <t>b.
+Retesting checks for unexpected side-effects while Regression testing ensures that the original fault has been corrected</t>
+  </si>
+  <si>
+    <t>c.
+Retesting ensures that the original fault has been corrected while Regression testing checks for other unexpected side-effects</t>
+  </si>
+  <si>
+    <t>d.
+There is no difference between Regression testing and Retesting</t>
+  </si>
+  <si>
+    <t>Beta testing is performed by:</t>
+  </si>
+  <si>
+    <t>a.
+An independent test team</t>
+  </si>
+  <si>
+    <t>b.
+The software development team</t>
+  </si>
+  <si>
+    <t>c.
+In-house users</t>
+  </si>
+  <si>
+    <t>d.
+External users</t>
+  </si>
+  <si>
+    <t>Which of the following is not a Static testing methodology?</t>
+  </si>
+  <si>
+    <t>a.
+Code review</t>
+  </si>
+  <si>
+    <t>b.
+Inspection</t>
+  </si>
+  <si>
+    <t>c.
+Walkthroughs</t>
+  </si>
+  <si>
+    <t>d.
+System tests</t>
+  </si>
+  <si>
+    <t>Which of the following statements holds true for Verification and Validation?</t>
+  </si>
+  <si>
+    <t>a.
+Verification is used to check if we are doing the right thing and Validation is used to check whether we have developed the software as per the client's requirements or not.</t>
+  </si>
+  <si>
+    <t>b.
+Validation is used to check if we are doing the right thing and Verification is used to check whether we have developed the software as per the client's requirements or not.</t>
+  </si>
+  <si>
+    <t>c.
+Validation tells us what to test and Verification decides on the methodology to go about testing the application</t>
+  </si>
+  <si>
+    <t>Which of the following is false about software testing?</t>
+  </si>
+  <si>
+    <t>a.
+Top-down integration testing has as its major advantage that low level modules never need testing</t>
+  </si>
+  <si>
+    <t>b.
+Alpha testing is in-house testing performed by the test team</t>
+  </si>
+  <si>
+    <t>c.
+Equivalence partitioning is used to minimize the number of permutations and combinations of input data</t>
+  </si>
+  <si>
+    <t>d.
+Fuzz testing provides random data to the input of a program</t>
+  </si>
+  <si>
+    <t>From the following options, choose the best example which represents a reliability failure for an application:</t>
+  </si>
+  <si>
+    <t>a.
+Slow response time</t>
+  </si>
+  <si>
+    <t>b.
+Excessive application consumption</t>
+  </si>
+  <si>
+    <t>c.
+Random application termination</t>
+  </si>
+  <si>
+    <t>d.
+Failure to encrypt data</t>
+  </si>
+  <si>
+    <t>Which of the following is true regarding Static Analysis tools?</t>
+  </si>
+  <si>
+    <t>a.
+They help you find defects rather than failures</t>
+  </si>
+  <si>
+    <t>b.
+They are used by developers only</t>
+  </si>
+  <si>
+    <t>c.
+They require compilation of code</t>
+  </si>
+  <si>
+    <t>d.
+All of the above</t>
+  </si>
+  <si>
+    <t>The testing performed by external organizations or standards bodies to give greater guarantees of compliance is called:</t>
+  </si>
+  <si>
+    <t>a.
+Usability testing</t>
+  </si>
+  <si>
+    <t>b.
+Conformance testing</t>
+  </si>
+  <si>
+    <t>c.
+Integration testing</t>
+  </si>
+  <si>
+    <t>d.
+System testing</t>
+  </si>
+  <si>
+    <t>Which of the following is not included in Non-functional testing?</t>
+  </si>
+  <si>
+    <t>a.
+Load/Stress testing</t>
+  </si>
+  <si>
+    <t>b.
+Unit testing</t>
+  </si>
+  <si>
+    <t>c.
+Security testing</t>
+  </si>
+  <si>
+    <t>d.
+Stress testing</t>
+  </si>
+  <si>
+    <t>Which of the following statements is incorrect in relation to Code coverage?</t>
+  </si>
+  <si>
+    <t>a.
+It describes the degree to which the source code of a program has been tested</t>
+  </si>
+  <si>
+    <t>b.
+It is a form of White-box testing</t>
+  </si>
+  <si>
+    <t>c.
+It is a form of Black-box testing</t>
+  </si>
+  <si>
+    <t>Which of the following tools supports traceability, recording of incidents, and scheduling of tests?</t>
+  </si>
+  <si>
+    <t>a.
+Static analysis tool</t>
+  </si>
+  <si>
+    <t>b.
+Debugging tool</t>
+  </si>
+  <si>
+    <t>c.
+Test management tool</t>
+  </si>
+  <si>
+    <t>d.
+Configuration management tool</t>
+  </si>
+  <si>
+    <t>Which of the following are the objectives of using a "test harness"?</t>
+  </si>
+  <si>
+    <t>a.
+Automating the testing process</t>
+  </si>
+  <si>
+    <t>b.
+Executing test suites of test cases</t>
+  </si>
+  <si>
+    <t>c.
+Generating test reports</t>
+  </si>
+  <si>
+    <t>d.
+Creating reusable test logic to reduce maintenance and improve test coverage</t>
+  </si>
+  <si>
+    <t>Usability testing indicates that the design and system should be modified if:</t>
+  </si>
+  <si>
+    <t>a.
+people have difficulty in understanding the instructions</t>
+  </si>
+  <si>
+    <t>b.
+people have difficulty in manipulating the parts</t>
+  </si>
+  <si>
+    <t>c.
+people have difficulty in interpreting the feedback</t>
+  </si>
+  <si>
+    <t>d.
+all of the above</t>
+  </si>
+  <si>
+    <t>Which of the following is incorrect for Black-box testing?</t>
+  </si>
+  <si>
+    <t>a.
+It takes an external perspective of the test object to derive test cases.</t>
+  </si>
+  <si>
+    <t>b.
+It is sometimes also called as Opaque Testing, Functional Testing and Closed Box Testing.</t>
+  </si>
+  <si>
+    <t>c.
+It uses an internal perspective of the system to design test cases based on internal structure.</t>
+  </si>
+  <si>
+    <t>Which of the following is written by a programmer and is meant to call the function to be tested by passing test data to it?</t>
+  </si>
+  <si>
+    <t>a.
+Stub</t>
+  </si>
+  <si>
+    <t>b.
+Driver</t>
+  </si>
+  <si>
+    <t>c.
+Proxy</t>
+  </si>
+  <si>
+    <t>Which of the following test activities provides the maximum potential cost savings from the use of Computer-Aided Software Testing (CAST)?</t>
+  </si>
+  <si>
+    <t>a.
+Test execution</t>
+  </si>
+  <si>
+    <t>b.
+Test planning</t>
+  </si>
+  <si>
+    <t>c.
+Test management</t>
+  </si>
+  <si>
+    <t>d.
+Test design</t>
+  </si>
+  <si>
+    <t>What is the normal order of activities in which software testing is carried out?</t>
+  </si>
+  <si>
+    <t>a.
+Unit, Integration, System, Validation</t>
+  </si>
+  <si>
+    <t>b.
+System, Integration, Unit, Validation</t>
+  </si>
+  <si>
+    <t>c.
+Unit, Integration, Validation, System</t>
+  </si>
+  <si>
+    <t>The main focus of Black-box testing is:</t>
+  </si>
+  <si>
+    <t>a.
+to check for logical errors</t>
+  </si>
+  <si>
+    <t>b.
+to ensure that each code statement is executed once</t>
+  </si>
+  <si>
+    <t>c.
+to test the functionality of the system as a whole</t>
+  </si>
+  <si>
+    <t>d.
+to identify all paths through the software</t>
+  </si>
+  <si>
+    <t>___________ testing is used to evaluate and understand the application's reliability, scalability and interoperability when more users are added or the volume of data is increased.</t>
+  </si>
+  <si>
+    <t>a.
+Integration</t>
+  </si>
+  <si>
+    <t>b.
+Performance</t>
+  </si>
+  <si>
+    <t>c.
+Regression</t>
+  </si>
+  <si>
+    <t>d.
+Stability</t>
+  </si>
+  <si>
+    <t>The review of a technical document such as requirements specs or a test plan, with the purpose of looking for problems and seeing what is missing, without fixing anything is called:</t>
+  </si>
+  <si>
+    <t>a.
+Inspection</t>
+  </si>
+  <si>
+    <t>b.
+Black box testing</t>
+  </si>
+  <si>
+    <t>c.
+White box testing</t>
+  </si>
+  <si>
+    <t>d.
+Walkthrough</t>
+  </si>
+  <si>
+    <t>Which of the following is not a type of Incremental testing approach?</t>
+  </si>
+  <si>
+    <t>a.
+Top-down</t>
+  </si>
+  <si>
+    <t>b.
+Big-bang</t>
+  </si>
+  <si>
+    <t>c.
+Bottom-up</t>
+  </si>
+  <si>
+    <t>Which of the following are benefits of automated testing?</t>
+  </si>
+  <si>
+    <t>a.
+reusability</t>
+  </si>
+  <si>
+    <t>b.
+efficiency</t>
+  </si>
+  <si>
+    <t>c.
+speed</t>
+  </si>
+  <si>
+    <t>d.
+allows testing of video and mp3 files</t>
+  </si>
+  <si>
+    <t>The testing phase in which individual software modules are combined and tested as a group is called:</t>
+  </si>
+  <si>
+    <t>a.
+Unit testing</t>
+  </si>
+  <si>
+    <t>b.
+Integration testing</t>
+  </si>
+  <si>
+    <t>c.
+Module testing</t>
+  </si>
+  <si>
+    <t>d.
+White-box testing</t>
+  </si>
+  <si>
+    <t>What is Boundary value testing?</t>
+  </si>
+  <si>
+    <t>a.
+It tests values at and near the minimum and maximum allowed values for a particular input or output</t>
+  </si>
+  <si>
+    <t>b.
+It tests different combinations of input circumstances</t>
+  </si>
+  <si>
+    <t>c.
+It is a testing technique associated with White-box testing</t>
+  </si>
+  <si>
+    <t>d.
+Both a and b</t>
+  </si>
+  <si>
+    <t>The determination of adherence or non adherence to a compliance is carried out during:</t>
+  </si>
+  <si>
+    <t>b.
+Audit</t>
+  </si>
+  <si>
+    <t>c.
+White-box testing</t>
+  </si>
+  <si>
+    <t>Selecting the test inputs that are likely to reveal a failure associated with a particular defect is an example of the use of:</t>
+  </si>
+  <si>
+    <t>a.
+Activity analysis</t>
+  </si>
+  <si>
+    <t>b.
+Defect taxonomy for test design</t>
+  </si>
+  <si>
+    <t>c.
+Root cause analysis</t>
+  </si>
+  <si>
+    <t>d.
+Cleanroom software development</t>
+  </si>
+  <si>
+    <t>Which of the following types of errors are uncovered in White-box testing?</t>
+  </si>
+  <si>
+    <t>a.
+Performance errors</t>
+  </si>
+  <si>
+    <t>b.
+Logical errors</t>
+  </si>
+  <si>
+    <t>c.
+Typographical errors</t>
+  </si>
+  <si>
+    <t>d.
+Behavioral errors</t>
+  </si>
+  <si>
+    <t>Which of the following statements is incorrect in relation to Test Automation?</t>
+  </si>
+  <si>
+    <t>a.
+Test Automation is the process of writing a computer program to do testing that would otherwise need to be done manually.</t>
+  </si>
+  <si>
+    <t>b.
+Test Automation is the use of software to control the execution of tests and the comparison of actual outcomes to predicted outcomes.</t>
+  </si>
+  <si>
+    <t>c.
+Test Automation tools may provide record and playback features that allow users to interactively record user actions and replay it back any number of times.</t>
+  </si>
+  <si>
+    <t>d.
+Test Automation is the set of procedures used by organizations to ensure that a software product will meet its quality goals at the best value to the customer.</t>
+  </si>
+  <si>
+    <t>Which of the following models of software development incorporates testing of Verification and Validation phases of software development life cycle?</t>
+  </si>
+  <si>
+    <t>a.
+Agile model</t>
+  </si>
+  <si>
+    <t>b.
+Waterfall model</t>
+  </si>
+  <si>
+    <t>c.
+V-Model</t>
+  </si>
+  <si>
+    <t>d.
+Spiral model</t>
+  </si>
+  <si>
+    <t>Identify the defect which can be detected by Equivalence Partitioning Technique:</t>
+  </si>
+  <si>
+    <t>a.
+Improper handling of sequences of events</t>
+  </si>
+  <si>
+    <t>b.
+Mis-handling of combinations of conditions</t>
+  </si>
+  <si>
+    <t>c.
+Irregular handling of large and small values</t>
+  </si>
+  <si>
+    <t>d.
+Improper handling of input classes</t>
+  </si>
+  <si>
+    <t>e.
+Invalid output generation</t>
+  </si>
+  <si>
+    <t>Which one of the following is a major benefit of verification early in the software development life cycle?</t>
+  </si>
+  <si>
+    <t>a.
+It allows the identification of changes in user requirements</t>
+  </si>
+  <si>
+    <t>b.
+It facilitates timely set up of the test environment</t>
+  </si>
+  <si>
+    <t>c.
+It reduces defect multiplication</t>
+  </si>
+  <si>
+    <t>d.
+It allows testers to become involved early in the project</t>
+  </si>
+  <si>
+    <t>Which of the following testing occurs outside the development environment?</t>
+  </si>
+  <si>
+    <t>a.
+Installation testing</t>
+  </si>
+  <si>
+    <t>b.
+White-box testing</t>
+  </si>
+  <si>
+    <t>d.
+Fuzz testing</t>
+  </si>
+  <si>
+    <t>Which of the following resources are tested by most of the Stress testing tools?</t>
+  </si>
+  <si>
+    <t>a.
+Disk space</t>
+  </si>
+  <si>
+    <t>b.
+Network bandwidth</t>
+  </si>
+  <si>
+    <t>c.
+Internal memory</t>
+  </si>
+  <si>
+    <t>What is the name of the testing method in which (for each pair of input parameters) all the possible discrete combinations of parameters are passed on?</t>
+  </si>
+  <si>
+    <t>a.
+Single testing</t>
+  </si>
+  <si>
+    <t>b.
+Pairwise testing</t>
+  </si>
+  <si>
+    <t>c.
+Unit testing</t>
+  </si>
+  <si>
+    <t>Which of the following options correctly defines the term "test harness"?</t>
+  </si>
+  <si>
+    <t>a.
+It is a high level document describing the principles, approach and major objectives of the organization regarding testing</t>
+  </si>
+  <si>
+    <t>b.
+It is a set of test activities collected into a manageable phase of a project</t>
+  </si>
+  <si>
+    <t>c.
+It is a collection of software and test data configured to test a program unit by running it under varying conditions and monitoring its behavior and outputs</t>
+  </si>
+  <si>
+    <t>d.
+It is a set of several test cases for a component or a system under test</t>
+  </si>
+  <si>
+    <t>Which of the following is not a part of System testing?</t>
+  </si>
+  <si>
+    <t>a.
+Recovery testing and failover testing</t>
+  </si>
+  <si>
+    <t>b.
+Performance, Load and Stress testing</t>
+  </si>
+  <si>
+    <t>c.
+Usability testing</t>
+  </si>
+  <si>
+    <t>d.
+Top-down integration testing</t>
+  </si>
+  <si>
+    <t>What is the main reason for testing a software immediately before releasing it?</t>
+  </si>
+  <si>
+    <t>a.
+To ensure that the system will work after release</t>
+  </si>
+  <si>
+    <t>b.
+To decide when the software is of sufficient quality to release</t>
+  </si>
+  <si>
+    <t>c.
+To find as many bugs as possible before release</t>
+  </si>
+  <si>
+    <t>d.
+To give information for a risk based decision about release</t>
+  </si>
+  <si>
+    <t>In Bottom-up integration testing,</t>
+  </si>
+  <si>
+    <t>a.
+Major decision points are tested in the early phase</t>
+  </si>
+  <si>
+    <t>b.
+No drivers need to be written</t>
+  </si>
+  <si>
+    <t>c.
+No stubs need to be written</t>
+  </si>
+  <si>
+    <t>d.
+Regression testing is not required</t>
+  </si>
+  <si>
+    <t>The cursory examination of all the basic components of a software system to ensure that they work is called:</t>
+  </si>
+  <si>
+    <t>a.
+Fuzz testing</t>
+  </si>
+  <si>
+    <t>b.
+Black-box testing</t>
+  </si>
+  <si>
+    <t>c.
+Sanity testing</t>
+  </si>
+  <si>
+    <t>d.
+Smoke testing</t>
+  </si>
+  <si>
+    <t>The process of using a test case to test a specific unit of code, function, or capability is called:</t>
+  </si>
+  <si>
+    <t>a.
+Test Run</t>
+  </si>
+  <si>
+    <t>b.
+Test Script</t>
+  </si>
+  <si>
+    <t>c.
+Test Plan</t>
+  </si>
+  <si>
+    <t>d.
+Test Scenario</t>
+  </si>
+  <si>
+    <t>In which of the following testing methodologies does the automatic generation of efficient test procedures/vectors use models of system requirements and specified functionality?</t>
+  </si>
+  <si>
+    <t>a.
+Repetitive testing</t>
+  </si>
+  <si>
+    <t>b.
+Model testing</t>
+  </si>
+  <si>
+    <t>c.
+Modular testing</t>
+  </si>
+  <si>
+    <t>Which of the following statements is not true regarding capture/replay tools?</t>
+  </si>
+  <si>
+    <t>a.
+They are used to support multi-user testing</t>
+  </si>
+  <si>
+    <t>b.
+They capture aspects of user behavior</t>
+  </si>
+  <si>
+    <t>c.
+They are the most frequently used types of CAST tools</t>
+  </si>
+  <si>
+    <t>d.
+They are used to capture and playback user requirements</t>
+  </si>
+  <si>
+    <t>Which of the following Security testing concepts deals with the process of determining whether a requester is allowed to receive a service or perform an operation?</t>
+  </si>
+  <si>
+    <t>a.
+Confidentiality</t>
+  </si>
+  <si>
+    <t>b.
+Integrity</t>
+  </si>
+  <si>
+    <t>c.
+Authentication</t>
+  </si>
+  <si>
+    <t>d.
+Authorization</t>
+  </si>
+  <si>
+    <t>In which type of testing is random data generated for input into the software?</t>
+  </si>
+  <si>
+    <t>a.
+Smoke testing</t>
+  </si>
+  <si>
+    <t>b.
+Marge testing</t>
+  </si>
+  <si>
+    <t>c.
+Fuzz testing</t>
+  </si>
+  <si>
+    <t>d.
+Operation testing</t>
+  </si>
+  <si>
+    <t>What do you understand by the term "Monkey test"?</t>
+  </si>
+  <si>
+    <t>a.
+It is random testing performed by automated testing tools</t>
+  </si>
+  <si>
+    <t>b.
+It is used to simulate the actions a user might perform</t>
+  </si>
+  <si>
+    <t>c.
+It is another name for Monitor testing</t>
+  </si>
+  <si>
+    <t>What would be the appropriate result of a Stress test at its peak?</t>
+  </si>
+  <si>
+    <t>a.
+A gradual performance slow-down leading to a non-catastrophic system halt</t>
+  </si>
+  <si>
+    <t>b.
+A gradual performance improvement leading to a catastrophic system halt</t>
+  </si>
+  <si>
+    <t>c.
+A gradual performance slow-down leading to a catastrophic system halt</t>
+  </si>
+  <si>
+    <t>d.
+A gradual performance improvement to a non-catastrophic system halt</t>
+  </si>
+  <si>
+    <t>Identification of set-use pairs is accomplished during which of the following static analysis activities?</t>
+  </si>
+  <si>
+    <t>a.
+Control flow analysis</t>
+  </si>
+  <si>
+    <t>b.
+Data flow analysis</t>
+  </si>
+  <si>
+    <t>c.
+Coding standards analysis</t>
+  </si>
+  <si>
+    <t>d.
+Function Point Analysis</t>
+  </si>
+  <si>
+    <t>Which of the following strategies are used for Integration testing?</t>
+  </si>
+  <si>
+    <t>a.
+Big Bang</t>
+  </si>
+  <si>
+    <t>b.
+Top-down</t>
+  </si>
+  <si>
+    <t>d.
+Any of the above strategies can be used</t>
+  </si>
+  <si>
+    <t>When a defect is detected and fixed, the software should be retested to confirm that the original defect has been successfully removed. This is called:</t>
+  </si>
+  <si>
+    <t>a.
+Regression testing</t>
+  </si>
+  <si>
+    <t>b.
+Maintenance testing</t>
+  </si>
+  <si>
+    <t>c.
+Confirmation testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1040,36 +4868,31 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1335,1121 +5158,4698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="17.1640625"/>
+    <col customWidth="1" max="2" min="2" width="42.83203125"/>
+    <col customWidth="1" max="3" min="3" width="11.1640625"/>
+    <col customWidth="1" max="4" min="4" width="14.1640625"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="36.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="n"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+      <c r="F2" s="3" t="n"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="n"/>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="n"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="n"/>
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="n"/>
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="n"/>
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="95" style="4" customWidth="1"/>
-    <col min="2" max="2" width="111" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="154.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="26.6640625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="4"/>
+    <col customWidth="1" max="1" min="1" style="4" width="95"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="111"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="117.5"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="4" width="154.6640625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="4" width="95.1640625"/>
+    <col customWidth="1" max="11" min="6" style="4" width="26.6640625"/>
+    <col customWidth="1" max="16384" min="12" style="4" width="10.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="80" r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="64" r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="64" r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="80" r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="80" r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="48" r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="96" r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="144" r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="48" r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="32" r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="96" r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" t="s">
+        <v>226</v>
+      </c>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C53" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D53" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E53" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="B54" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="C54" t="s">
         <v>268</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="D54" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C27" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" t="s">
+        <v>390</v>
+      </c>
+      <c r="E27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" t="s">
+        <v>394</v>
+      </c>
+      <c r="D28" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D29" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" t="s">
+        <v>409</v>
+      </c>
+      <c r="E31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>411</v>
+      </c>
+      <c r="B32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" t="s">
+        <v>414</v>
+      </c>
+      <c r="E32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C33" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" t="s">
+        <v>430</v>
+      </c>
+      <c r="C36" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>434</v>
+      </c>
+      <c r="B37" t="s">
+        <v>435</v>
+      </c>
+      <c r="C37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B38" t="s">
+        <v>440</v>
+      </c>
+      <c r="C38" t="s">
+        <v>441</v>
+      </c>
+      <c r="D38" t="s">
+        <v>442</v>
+      </c>
+      <c r="E38" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>443</v>
+      </c>
+      <c r="B39" t="s">
+        <v>444</v>
+      </c>
+      <c r="C39" t="s">
+        <v>445</v>
+      </c>
+      <c r="D39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>447</v>
+      </c>
+      <c r="B40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" t="s">
+        <v>450</v>
+      </c>
+      <c r="E40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" t="s">
+        <v>454</v>
+      </c>
+      <c r="D41" t="s">
+        <v>455</v>
+      </c>
+      <c r="E41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>457</v>
+      </c>
+      <c r="B42" t="s">
+        <v>343</v>
+      </c>
+      <c r="C42" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" t="s">
+        <v>398</v>
+      </c>
+      <c r="E42" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>460</v>
+      </c>
+      <c r="B43" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" t="s">
+        <v>463</v>
+      </c>
+      <c r="E43" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+      <c r="D7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E10" t="s">
+        <v>509</v>
+      </c>
+      <c r="F10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14" t="s">
+        <v>529</v>
+      </c>
+      <c r="E14" t="s">
+        <v>530</v>
+      </c>
+      <c r="F14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C15" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" t="s">
+        <v>535</v>
+      </c>
+      <c r="E15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" t="s">
+        <v>539</v>
+      </c>
+      <c r="E16" t="s">
+        <v>540</v>
+      </c>
+      <c r="F16" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" t="s">
+        <v>544</v>
+      </c>
+      <c r="D17" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" t="s">
+        <v>546</v>
+      </c>
+      <c r="F17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>548</v>
+      </c>
+      <c r="B18" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>553</v>
+      </c>
+      <c r="B19" t="s">
+        <v>554</v>
+      </c>
+      <c r="C19" t="s">
+        <v>555</v>
+      </c>
+      <c r="D19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E19" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D20" t="s">
+        <v>561</v>
+      </c>
+      <c r="E20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" t="s">
+        <v>564</v>
+      </c>
+      <c r="C21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D21" t="s">
+        <v>566</v>
+      </c>
+      <c r="E21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" t="s">
+        <v>569</v>
+      </c>
+      <c r="C22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D22" t="s">
+        <v>571</v>
+      </c>
+      <c r="E22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>573</v>
+      </c>
+      <c r="B23" t="s">
+        <v>574</v>
+      </c>
+      <c r="C23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D23" t="s">
+        <v>576</v>
+      </c>
+      <c r="E23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>578</v>
+      </c>
+      <c r="B24" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" t="s">
+        <v>581</v>
+      </c>
+      <c r="E24" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" t="s">
+        <v>585</v>
+      </c>
+      <c r="D25" t="s">
+        <v>586</v>
+      </c>
+      <c r="E25" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>588</v>
+      </c>
+      <c r="B26" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D26" t="s">
+        <v>591</v>
+      </c>
+      <c r="E26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>592</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
+        <v>594</v>
+      </c>
+      <c r="D27" t="s">
+        <v>595</v>
+      </c>
+      <c r="E27" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>597</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>598</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>599</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>602</v>
       </c>
       <c r="B29" t="s">
+        <v>603</v>
+      </c>
+      <c r="C29" t="s">
+        <v>604</v>
+      </c>
+      <c r="D29" t="s">
+        <v>605</v>
+      </c>
+      <c r="E29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" t="s">
+        <v>608</v>
+      </c>
+      <c r="C30" t="s">
+        <v>609</v>
+      </c>
+      <c r="D30" t="s">
+        <v>610</v>
+      </c>
+      <c r="E30" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C31" t="s">
+        <v>614</v>
+      </c>
+      <c r="D31" t="s">
+        <v>615</v>
+      </c>
+      <c r="E31" t="s">
+        <v>616</v>
+      </c>
+      <c r="F31" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>618</v>
+      </c>
+      <c r="B32" t="s">
+        <v>619</v>
+      </c>
+      <c r="C32" t="s">
+        <v>620</v>
+      </c>
+      <c r="D32" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>623</v>
+      </c>
+      <c r="B33" t="s">
+        <v>624</v>
+      </c>
+      <c r="C33" t="s">
+        <v>625</v>
+      </c>
+      <c r="D33" t="s">
+        <v>626</v>
+      </c>
+      <c r="E33" t="s">
+        <v>627</v>
+      </c>
+      <c r="F33" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>629</v>
+      </c>
+      <c r="B34" t="s">
+        <v>630</v>
+      </c>
+      <c r="C34" t="s">
+        <v>631</v>
+      </c>
+      <c r="D34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" t="s">
+        <v>634</v>
+      </c>
+      <c r="C35" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" t="s">
+        <v>636</v>
+      </c>
+      <c r="E35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>638</v>
+      </c>
+      <c r="B36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C36" t="s">
+        <v>640</v>
+      </c>
+      <c r="D36" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>642</v>
+      </c>
+      <c r="B37" t="s">
+        <v>643</v>
+      </c>
+      <c r="C37" t="s">
+        <v>644</v>
+      </c>
+      <c r="D37" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>647</v>
+      </c>
+      <c r="B38" t="s">
+        <v>648</v>
+      </c>
+      <c r="C38" t="s">
+        <v>649</v>
+      </c>
+      <c r="D38" t="s">
+        <v>650</v>
+      </c>
+      <c r="E38" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>652</v>
+      </c>
+      <c r="B39" t="s">
+        <v>653</v>
+      </c>
+      <c r="C39" t="s">
+        <v>654</v>
+      </c>
+      <c r="D39" t="s">
+        <v>655</v>
+      </c>
+      <c r="E39" t="s">
+        <v>656</v>
+      </c>
+      <c r="F39" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>658</v>
+      </c>
+      <c r="B40" t="s">
+        <v>659</v>
+      </c>
+      <c r="C40" t="s">
+        <v>660</v>
+      </c>
+      <c r="D40" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>662</v>
+      </c>
+      <c r="B41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41" t="s">
+        <v>664</v>
+      </c>
+      <c r="D41" t="s">
+        <v>665</v>
+      </c>
+      <c r="E41" t="s">
         <v>137</v>
       </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>666</v>
+      </c>
+      <c r="B42" t="s">
+        <v>667</v>
+      </c>
+      <c r="C42" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" t="s">
+        <v>669</v>
+      </c>
+      <c r="E42" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>671</v>
+      </c>
+      <c r="B43" t="s">
+        <v>672</v>
+      </c>
+      <c r="C43" t="s">
+        <v>673</v>
+      </c>
+      <c r="D43" t="s">
+        <v>674</v>
+      </c>
+      <c r="E43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>676</v>
+      </c>
+      <c r="B44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C44" t="s">
+        <v>678</v>
+      </c>
+      <c r="D44" t="s">
+        <v>679</v>
+      </c>
+      <c r="E44" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" t="s">
+        <v>682</v>
+      </c>
+      <c r="C45" t="s">
+        <v>683</v>
+      </c>
+      <c r="D45" t="s">
+        <v>684</v>
+      </c>
+      <c r="E45" t="s">
+        <v>685</v>
+      </c>
+      <c r="F45" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>687</v>
+      </c>
+      <c r="B46" t="s">
+        <v>688</v>
+      </c>
+      <c r="C46" t="s">
+        <v>689</v>
+      </c>
+      <c r="D46" t="s">
+        <v>690</v>
+      </c>
+      <c r="E46" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>692</v>
+      </c>
+      <c r="B47" t="s">
+        <v>693</v>
+      </c>
+      <c r="C47" t="s">
+        <v>694</v>
+      </c>
+      <c r="D47" t="s">
+        <v>695</v>
+      </c>
+      <c r="E47" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>697</v>
+      </c>
+      <c r="B48" t="s">
+        <v>698</v>
+      </c>
+      <c r="C48" t="s">
+        <v>699</v>
+      </c>
+      <c r="D48" t="s">
+        <v>700</v>
+      </c>
+      <c r="E48" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>702</v>
+      </c>
+      <c r="B49" t="s">
+        <v>703</v>
+      </c>
+      <c r="C49" t="s">
+        <v>704</v>
+      </c>
+      <c r="D49" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>706</v>
+      </c>
+      <c r="B50" t="s">
+        <v>707</v>
+      </c>
+      <c r="C50" t="s">
+        <v>708</v>
+      </c>
+      <c r="D50" t="s">
+        <v>709</v>
+      </c>
+      <c r="E50" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>711</v>
+      </c>
+      <c r="B51" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" t="s">
+        <v>713</v>
+      </c>
+      <c r="D51" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>715</v>
+      </c>
+      <c r="B52" t="s">
+        <v>716</v>
+      </c>
+      <c r="C52" t="s">
+        <v>717</v>
+      </c>
+      <c r="D52" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>719</v>
+      </c>
+      <c r="B53" t="s">
+        <v>720</v>
+      </c>
+      <c r="C53" t="s">
+        <v>721</v>
+      </c>
+      <c r="D53" t="s">
+        <v>722</v>
+      </c>
+      <c r="E53" t="s">
+        <v>723</v>
+      </c>
+      <c r="F53" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>725</v>
+      </c>
+      <c r="B54" t="s">
+        <v>726</v>
+      </c>
+      <c r="C54" t="s">
+        <v>727</v>
+      </c>
+      <c r="D54" t="s">
+        <v>728</v>
+      </c>
+      <c r="E54" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>730</v>
+      </c>
+      <c r="B55" t="s">
+        <v>731</v>
+      </c>
+      <c r="C55" t="s">
+        <v>732</v>
+      </c>
+      <c r="D55" t="s">
+        <v>733</v>
+      </c>
+      <c r="E55" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>735</v>
+      </c>
+      <c r="B56" t="s">
+        <v>736</v>
+      </c>
+      <c r="C56" t="s">
+        <v>737</v>
+      </c>
+      <c r="D56" t="s">
+        <v>738</v>
+      </c>
+      <c r="E56" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>740</v>
+      </c>
+      <c r="B57" t="s">
+        <v>741</v>
+      </c>
+      <c r="C57" t="s">
+        <v>742</v>
+      </c>
+      <c r="D57" t="s">
+        <v>743</v>
+      </c>
+      <c r="E57" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>745</v>
+      </c>
+      <c r="B58" t="s">
+        <v>746</v>
+      </c>
+      <c r="C58" t="s">
+        <v>747</v>
+      </c>
+      <c r="D58" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>749</v>
+      </c>
+      <c r="B59" t="s">
+        <v>750</v>
+      </c>
+      <c r="C59" t="s">
+        <v>751</v>
+      </c>
+      <c r="D59" t="s">
+        <v>752</v>
+      </c>
+      <c r="E59" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>754</v>
+      </c>
+      <c r="B60" t="s">
+        <v>755</v>
+      </c>
+      <c r="C60" t="s">
+        <v>756</v>
+      </c>
+      <c r="D60" t="s">
+        <v>757</v>
+      </c>
+      <c r="E60" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>758</v>
+      </c>
+      <c r="B61" t="s">
+        <v>759</v>
+      </c>
+      <c r="C61" t="s">
+        <v>760</v>
+      </c>
+      <c r="D61" t="s">
+        <v>761</v>
+      </c>
+      <c r="E61" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>763</v>
+      </c>
+      <c r="B62" t="s">
+        <v>764</v>
+      </c>
+      <c r="C62" t="s">
+        <v>765</v>
+      </c>
+      <c r="D62" t="s">
+        <v>766</v>
+      </c>
+      <c r="E62" t="s">
+        <v>767</v>
+      </c>
+      <c r="F62" t="s">
+        <v>768</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>773</v>
+      </c>
+      <c r="B4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C4" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4" t="s">
+        <v>776</v>
+      </c>
+      <c r="E4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B6" t="s">
+        <v>784</v>
+      </c>
+      <c r="C6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>790</v>
+      </c>
+      <c r="B8" t="s">
+        <v>791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" t="s">
+        <v>795</v>
+      </c>
+      <c r="C9" t="s">
+        <v>796</v>
+      </c>
+      <c r="D9" t="s">
+        <v>797</v>
+      </c>
+      <c r="E9" t="s">
+        <v>798</v>
+      </c>
+      <c r="F9" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>800</v>
+      </c>
+      <c r="B10" t="s">
+        <v>801</v>
+      </c>
+      <c r="C10" t="s">
+        <v>802</v>
+      </c>
+      <c r="D10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>681</v>
+      </c>
+      <c r="B11" t="s">
+        <v>805</v>
+      </c>
+      <c r="C11" t="s">
+        <v>806</v>
+      </c>
+      <c r="D11" t="s">
+        <v>807</v>
+      </c>
+      <c r="E11" t="s">
+        <v>808</v>
+      </c>
+      <c r="F11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>809</v>
+      </c>
+      <c r="B12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E12" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>812</v>
+      </c>
+      <c r="B13" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" t="s">
+        <v>814</v>
+      </c>
+      <c r="D13" t="s">
+        <v>815</v>
+      </c>
+      <c r="E13" t="s">
+        <v>816</v>
+      </c>
+      <c r="F13" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>818</v>
+      </c>
+      <c r="B14" t="s">
+        <v>819</v>
+      </c>
+      <c r="C14" t="s">
+        <v>820</v>
+      </c>
+      <c r="D14" t="s">
+        <v>821</v>
+      </c>
+      <c r="E14" t="s">
+        <v>822</v>
+      </c>
+      <c r="F14" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>824</v>
+      </c>
+      <c r="B15" t="s">
+        <v>825</v>
+      </c>
+      <c r="C15" t="s">
+        <v>826</v>
+      </c>
+      <c r="D15" t="s">
+        <v>827</v>
+      </c>
+      <c r="E15" t="s">
+        <v>828</v>
+      </c>
+      <c r="F15" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>830</v>
+      </c>
+      <c r="B16" t="s">
+        <v>831</v>
+      </c>
+      <c r="C16" t="s">
+        <v>832</v>
+      </c>
+      <c r="D16" t="s">
+        <v>833</v>
+      </c>
+      <c r="E16" t="s">
+        <v>834</v>
+      </c>
+      <c r="F16" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>836</v>
+      </c>
+      <c r="B17" t="s">
+        <v>837</v>
+      </c>
+      <c r="C17" t="s">
+        <v>838</v>
+      </c>
+      <c r="D17" t="s">
+        <v>781</v>
+      </c>
+      <c r="E17" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C18" t="s">
+        <v>840</v>
+      </c>
+      <c r="D18" t="s">
+        <v>841</v>
+      </c>
+      <c r="E18" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>843</v>
+      </c>
+      <c r="B19" t="s">
+        <v>844</v>
+      </c>
+      <c r="C19" t="s">
+        <v>845</v>
+      </c>
+      <c r="D19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E19" t="s">
+        <v>847</v>
+      </c>
+      <c r="F19" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>849</v>
+      </c>
+      <c r="B20" t="s">
+        <v>850</v>
+      </c>
+      <c r="C20" t="s">
+        <v>851</v>
+      </c>
+      <c r="D20" t="s">
+        <v>852</v>
+      </c>
+      <c r="E20" t="s">
+        <v>853</v>
+      </c>
+      <c r="F20" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>855</v>
+      </c>
+      <c r="B21" t="s">
+        <v>856</v>
+      </c>
+      <c r="C21" t="s">
+        <v>857</v>
+      </c>
+      <c r="D21" t="s">
+        <v>858</v>
+      </c>
+      <c r="E21" t="s">
+        <v>859</v>
+      </c>
+      <c r="F21" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>861</v>
+      </c>
+      <c r="B22" t="s">
+        <v>862</v>
+      </c>
+      <c r="C22" t="s">
+        <v>863</v>
+      </c>
+      <c r="D22" t="s">
+        <v>864</v>
+      </c>
+      <c r="E22" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B23" t="s">
+        <v>867</v>
+      </c>
+      <c r="C23" t="s">
+        <v>868</v>
+      </c>
+      <c r="D23" t="s">
+        <v>869</v>
+      </c>
+      <c r="E23" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>871</v>
+      </c>
+      <c r="B24" t="s">
+        <v>872</v>
+      </c>
+      <c r="C24" t="s">
+        <v>873</v>
+      </c>
+      <c r="D24" t="s">
+        <v>874</v>
+      </c>
+      <c r="E24" t="s">
+        <v>875</v>
+      </c>
+      <c r="F24" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>877</v>
+      </c>
+      <c r="B25" t="s">
+        <v>770</v>
+      </c>
+      <c r="C25" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>878</v>
+      </c>
+      <c r="B26" t="s">
+        <v>879</v>
+      </c>
+      <c r="C26" t="s">
+        <v>880</v>
+      </c>
+      <c r="D26" t="s">
+        <v>881</v>
+      </c>
+      <c r="E26" t="s">
+        <v>882</v>
+      </c>
+      <c r="F26" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>884</v>
+      </c>
+      <c r="B27" t="s">
+        <v>885</v>
+      </c>
+      <c r="C27" t="s">
+        <v>886</v>
+      </c>
+      <c r="D27" t="s">
+        <v>887</v>
+      </c>
+      <c r="E27" t="s">
+        <v>888</v>
+      </c>
+      <c r="F27" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>889</v>
+      </c>
+      <c r="B28" t="s">
+        <v>890</v>
+      </c>
+      <c r="C28" t="s">
+        <v>891</v>
+      </c>
+      <c r="D28" t="s">
+        <v>892</v>
+      </c>
+      <c r="E28" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>894</v>
+      </c>
+      <c r="B29" t="s">
+        <v>895</v>
+      </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>896</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>897</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>899</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>900</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>901</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>902</v>
       </c>
       <c r="E30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>476</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>904</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>905</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>906</v>
       </c>
       <c r="E31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+      <c r="F31" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>909</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>910</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>911</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>912</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>914</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>915</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>916</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>917</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>918</v>
+      </c>
+      <c r="F33" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>919</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>920</v>
       </c>
       <c r="C34" t="s">
-        <v>163</v>
+        <v>921</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>922</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>923</v>
+      </c>
+      <c r="F34" t="s">
+        <v>924</v>
+      </c>
+      <c r="G34" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>926</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>770</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>927</v>
+      </c>
+      <c r="B36" t="s">
+        <v>928</v>
+      </c>
+      <c r="C36" t="s">
+        <v>929</v>
+      </c>
+      <c r="D36" t="s">
+        <v>930</v>
+      </c>
+      <c r="E36" t="s">
+        <v>931</v>
+      </c>
+      <c r="F36" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>932</v>
+      </c>
+      <c r="B37" t="s">
+        <v>933</v>
+      </c>
+      <c r="C37" t="s">
+        <v>934</v>
+      </c>
+      <c r="D37" t="s">
+        <v>935</v>
+      </c>
+      <c r="E37" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>937</v>
+      </c>
+      <c r="B38" t="s">
+        <v>938</v>
+      </c>
+      <c r="C38" t="s">
+        <v>939</v>
+      </c>
+      <c r="D38" t="s">
+        <v>940</v>
+      </c>
+      <c r="E38" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>942</v>
+      </c>
+      <c r="B39" t="s">
+        <v>943</v>
+      </c>
+      <c r="C39" t="s">
+        <v>944</v>
+      </c>
+      <c r="D39" t="s">
+        <v>945</v>
+      </c>
+      <c r="E39" t="s">
+        <v>946</v>
+      </c>
+      <c r="F39" t="s">
+        <v>947</v>
+      </c>
+      <c r="G39" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>949</v>
+      </c>
+      <c r="B40" t="s">
+        <v>950</v>
+      </c>
+      <c r="C40" t="s">
+        <v>951</v>
+      </c>
+      <c r="D40" t="s">
+        <v>952</v>
+      </c>
+      <c r="E40" t="s">
+        <v>953</v>
+      </c>
+      <c r="F40" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>954</v>
+      </c>
+      <c r="B41" t="s">
+        <v>955</v>
+      </c>
+      <c r="C41" t="s">
+        <v>956</v>
+      </c>
+      <c r="D41" t="s">
+        <v>957</v>
+      </c>
+      <c r="E41" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>958</v>
+      </c>
+      <c r="B42" t="s">
+        <v>959</v>
+      </c>
+      <c r="C42" t="s">
+        <v>960</v>
+      </c>
+      <c r="D42" t="s">
+        <v>961</v>
+      </c>
+      <c r="E42" t="s">
+        <v>962</v>
+      </c>
+      <c r="F42" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>964</v>
+      </c>
+      <c r="B43" t="s">
+        <v>965</v>
+      </c>
+      <c r="C43" t="s">
+        <v>966</v>
+      </c>
+      <c r="D43" t="s">
+        <v>967</v>
+      </c>
+      <c r="E43" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>969</v>
+      </c>
+      <c r="B44" t="s">
+        <v>970</v>
+      </c>
+      <c r="C44" t="s">
+        <v>971</v>
+      </c>
+      <c r="D44" t="s">
+        <v>781</v>
+      </c>
+      <c r="E44" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>972</v>
+      </c>
+      <c r="B45" t="s">
+        <v>973</v>
+      </c>
+      <c r="C45" t="s">
+        <v>974</v>
+      </c>
+      <c r="D45" t="s">
+        <v>975</v>
+      </c>
+      <c r="E45" t="s">
+        <v>976</v>
+      </c>
+      <c r="F45" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>978</v>
+      </c>
+      <c r="B46" t="s">
+        <v>979</v>
+      </c>
+      <c r="C46" t="s">
+        <v>980</v>
+      </c>
+      <c r="D46" t="s">
+        <v>981</v>
+      </c>
+      <c r="E46" t="s">
+        <v>982</v>
+      </c>
+      <c r="F46" t="s">
+        <v>983</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:F56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C3" t="s">
+        <v>991</v>
+      </c>
+      <c r="D3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>994</v>
+      </c>
+      <c r="B4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C4" t="s">
+        <v>996</v>
+      </c>
+      <c r="D4" t="s">
+        <v>997</v>
+      </c>
+      <c r="E4" t="s">
+        <v>998</v>
+      </c>
+      <c r="F4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E24" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1139</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>1140</v>
       </c>
       <c r="E35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>1142</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>1143</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>1144</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>1145</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>1147</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>1148</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>1149</v>
       </c>
       <c r="D37" t="s">
-        <v>178</v>
+        <v>1150</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>1153</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>1154</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>1155</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>1156</v>
       </c>
       <c r="E38" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>1158</v>
       </c>
       <c r="B39" t="s">
-        <v>185</v>
+        <v>1159</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>1160</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>1117</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>1162</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>1163</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>1164</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>1165</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>1166</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>1167</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>1168</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>1169</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>1170</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>1171</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>1172</v>
       </c>
       <c r="D42" t="s">
-        <v>202</v>
+        <v>1173</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>1175</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>1176</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>1177</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>1178</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>209</v>
+        <v>1180</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>1181</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>1182</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>1183</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
-      </c>
-      <c r="F44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>1185</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>1186</v>
       </c>
       <c r="C45" t="s">
-        <v>217</v>
+        <v>1187</v>
       </c>
       <c r="D45" t="s">
-        <v>218</v>
+        <v>1188</v>
       </c>
       <c r="E45" t="s">
-        <v>219</v>
-      </c>
-      <c r="F45" t="s">
-        <v>220</v>
-      </c>
-      <c r="G45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>1190</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>1191</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>1192</v>
       </c>
       <c r="D46" t="s">
-        <v>224</v>
+        <v>1193</v>
       </c>
       <c r="E46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>1195</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>1196</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>1197</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>1198</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>1200</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>1201</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>1202</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>1203</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>1204</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>1205</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>1206</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>1207</v>
       </c>
       <c r="E49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>1209</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>1210</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>1211</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>1212</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>1214</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>1215</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>1216</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>1217</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>1219</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>1220</v>
       </c>
       <c r="C52" t="s">
-        <v>250</v>
+        <v>1221</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>1223</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>1224</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>1225</v>
       </c>
       <c r="D53" t="s">
-        <v>256</v>
+        <v>1226</v>
       </c>
       <c r="E53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>1228</v>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>1229</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>1230</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>1231</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>